--- a/SPX_Monthly.xlsx
+++ b/SPX_Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wumail-my.sharepoint.com/personal/boodusami_widener_edu/Documents/Financial Data Science/Data/Bookdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C6F33D2F-BE49-49AF-A568-0D81B45B8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD840F6-7984-4A99-B2D8-BC2E03B38B6F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{C6F33D2F-BE49-49AF-A568-0D81B45B8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{275C075F-E495-4A46-BF16-D505D2C7850F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAA922A5-DBDD-40C1-86C6-B5E7F41E8E19}"/>
   </bookViews>
@@ -98,6 +98,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F4C3C-22B3-4E91-82A6-75D5C10E0487}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,428 +427,428 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>33571</v>
+        <v>33238</v>
       </c>
       <c r="B2">
-        <v>375.22</v>
+        <v>330.22</v>
       </c>
       <c r="C2">
-        <v>2600000000</v>
+        <v>2380000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>33603</v>
+        <v>33269</v>
       </c>
       <c r="B3">
-        <v>417.09</v>
+        <v>343.93</v>
       </c>
       <c r="C3">
-        <v>2969999872</v>
+        <v>3049999872</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>33634</v>
+        <v>33297</v>
       </c>
       <c r="B4">
-        <v>408.79</v>
+        <v>367.07</v>
       </c>
       <c r="C4">
-        <v>3840000000</v>
+        <v>3270000128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>33662</v>
+        <v>33326</v>
       </c>
       <c r="B5">
-        <v>412.7</v>
+        <v>375.22</v>
       </c>
       <c r="C5">
-        <v>3009999872</v>
+        <v>2870000128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>33694</v>
+        <v>33358</v>
       </c>
       <c r="B6">
-        <v>403.69</v>
+        <v>375.35</v>
       </c>
       <c r="C6">
-        <v>2880000000</v>
+        <v>2969999872</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>33724</v>
+        <v>33389</v>
       </c>
       <c r="B7">
-        <v>414.95</v>
+        <v>389.83</v>
       </c>
       <c r="C7">
-        <v>3209999872</v>
+        <v>2780000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>33753</v>
+        <v>33417</v>
       </c>
       <c r="B8">
-        <v>415.35</v>
+        <v>371.16</v>
       </c>
       <c r="C8">
-        <v>2560000000</v>
+        <v>2440000000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>33785</v>
+        <v>33450</v>
       </c>
       <c r="B9">
-        <v>408.14</v>
+        <v>387.81</v>
       </c>
       <c r="C9">
-        <v>3070000128</v>
+        <v>2520000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>33816</v>
+        <v>33480</v>
       </c>
       <c r="B10">
-        <v>424.21</v>
+        <v>395.43</v>
       </c>
       <c r="C10">
-        <v>2990000128</v>
+        <v>2780000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>33847</v>
+        <v>33511</v>
       </c>
       <c r="B11">
-        <v>414.03</v>
+        <v>387.86</v>
       </c>
       <c r="C11">
-        <v>2560000000</v>
+        <v>2400000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>33877</v>
+        <v>33542</v>
       </c>
       <c r="B12">
-        <v>417.8</v>
+        <v>392.46</v>
       </c>
       <c r="C12">
-        <v>2910000128</v>
+        <v>2929999872</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>33907</v>
+        <v>33571</v>
       </c>
       <c r="B13">
-        <v>418.68</v>
+        <v>375.22</v>
       </c>
       <c r="C13">
-        <v>3240000000</v>
+        <v>2600000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>33938</v>
+        <v>33603</v>
       </c>
       <c r="B14">
-        <v>431.35</v>
+        <v>417.09</v>
       </c>
       <c r="C14">
-        <v>2889999872</v>
+        <v>2969999872</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>33969</v>
+        <v>33634</v>
       </c>
       <c r="B15">
-        <v>435.71</v>
+        <v>408.79</v>
       </c>
       <c r="C15">
-        <v>3329999872</v>
+        <v>3840000000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>33998</v>
+        <v>33662</v>
       </c>
       <c r="B16">
-        <v>438.78</v>
+        <v>412.7</v>
       </c>
       <c r="C16">
-        <v>3750000128</v>
+        <v>3009999872</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>34026</v>
+        <v>33694</v>
       </c>
       <c r="B17">
-        <v>443.38</v>
+        <v>403.69</v>
       </c>
       <c r="C17">
-        <v>3590000128</v>
+        <v>2880000000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>34059</v>
+        <v>33724</v>
       </c>
       <c r="B18">
-        <v>451.67</v>
+        <v>414.95</v>
       </c>
       <c r="C18">
-        <v>3940000000</v>
+        <v>3209999872</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>34089</v>
+        <v>33753</v>
       </c>
       <c r="B19">
-        <v>440.19</v>
+        <v>415.35</v>
       </c>
       <c r="C19">
-        <v>4129999872</v>
+        <v>2560000000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>34120</v>
+        <v>33785</v>
       </c>
       <c r="B20">
-        <v>450.19</v>
+        <v>408.14</v>
       </c>
       <c r="C20">
-        <v>3500000000</v>
+        <v>3070000128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>34150</v>
+        <v>33816</v>
       </c>
       <c r="B21">
-        <v>450.53</v>
+        <v>424.21</v>
       </c>
       <c r="C21">
-        <v>3689999872</v>
+        <v>2990000128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>34180</v>
+        <v>33847</v>
       </c>
       <c r="B22">
-        <v>448.13</v>
+        <v>414.03</v>
       </c>
       <c r="C22">
-        <v>3550000128</v>
+        <v>2560000000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>34212</v>
+        <v>33877</v>
       </c>
       <c r="B23">
-        <v>463.56</v>
+        <v>417.8</v>
       </c>
       <c r="C23">
-        <v>3780000000</v>
+        <v>2910000128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>34242</v>
+        <v>33907</v>
       </c>
       <c r="B24">
-        <v>458.93</v>
+        <v>418.68</v>
       </c>
       <c r="C24">
-        <v>3760000000</v>
+        <v>3240000000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>34271</v>
+        <v>33938</v>
       </c>
       <c r="B25">
-        <v>467.83</v>
+        <v>431.35</v>
       </c>
       <c r="C25">
-        <v>4089999872</v>
+        <v>2889999872</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>34303</v>
+        <v>33969</v>
       </c>
       <c r="B26">
-        <v>461.79</v>
+        <v>435.71</v>
       </c>
       <c r="C26">
-        <v>3860000000</v>
+        <v>3329999872</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>34334</v>
+        <v>33998</v>
       </c>
       <c r="B27">
-        <v>466.45</v>
+        <v>438.78</v>
       </c>
       <c r="C27">
-        <v>3710000128</v>
+        <v>3750000128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>34365</v>
+        <v>34026</v>
       </c>
       <c r="B28">
-        <v>481.61</v>
+        <v>443.38</v>
       </c>
       <c r="C28">
-        <v>4499999744</v>
+        <v>3590000128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>34393</v>
+        <v>34059</v>
       </c>
       <c r="B29">
-        <v>467.14</v>
+        <v>451.67</v>
       </c>
       <c r="C29">
-        <v>3980000000</v>
+        <v>3940000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>34424</v>
+        <v>34089</v>
       </c>
       <c r="B30">
-        <v>445.77</v>
+        <v>440.19</v>
       </c>
       <c r="C30">
-        <v>4950000128</v>
+        <v>4129999872</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>34453</v>
+        <v>34120</v>
       </c>
       <c r="B31">
-        <v>450.91</v>
+        <v>450.19</v>
       </c>
       <c r="C31">
-        <v>4190000128</v>
+        <v>3500000000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>34485</v>
+        <v>34150</v>
       </c>
       <c r="B32">
-        <v>456.5</v>
+        <v>450.53</v>
       </c>
       <c r="C32">
-        <v>4040000000</v>
+        <v>3689999872</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>34515</v>
+        <v>34180</v>
       </c>
       <c r="B33">
-        <v>444.27</v>
+        <v>448.13</v>
       </c>
       <c r="C33">
-        <v>4100000000</v>
+        <v>3550000128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>34544</v>
+        <v>34212</v>
       </c>
       <c r="B34">
-        <v>458.26</v>
+        <v>463.56</v>
       </c>
       <c r="C34">
-        <v>3550000128</v>
+        <v>3780000000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34577</v>
+        <v>34242</v>
       </c>
       <c r="B35">
-        <v>475.49</v>
+        <v>458.93</v>
       </c>
       <c r="C35">
-        <v>4550000128</v>
+        <v>3760000000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34607</v>
+        <v>34271</v>
       </c>
       <c r="B36">
-        <v>462.69</v>
+        <v>467.83</v>
       </c>
       <c r="C36">
-        <v>4310000128</v>
+        <v>4089999872</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>34638</v>
+        <v>34303</v>
       </c>
       <c r="B37">
-        <v>472.35</v>
+        <v>461.79</v>
       </c>
       <c r="C37">
-        <v>4630000128</v>
+        <v>3860000000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>34668</v>
+        <v>34334</v>
       </c>
       <c r="B38">
-        <v>453.69</v>
+        <v>466.45</v>
       </c>
       <c r="C38">
-        <v>4510000128</v>
+        <v>3710000128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>34698</v>
+        <v>34365</v>
       </c>
       <c r="B39">
-        <v>459.27</v>
+        <v>481.61</v>
       </c>
       <c r="C39">
-        <v>4269999872</v>
+        <v>4499999744</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>34730</v>
+        <v>34393</v>
       </c>
       <c r="B40">
-        <v>470.42</v>
+        <v>467.14</v>
       </c>
       <c r="C40">
         <v>3980000000</v>
@@ -852,2683 +856,2683 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>34758</v>
+        <v>34424</v>
       </c>
       <c r="B41">
-        <v>487.39</v>
+        <v>445.77</v>
       </c>
       <c r="C41">
-        <v>3790000128</v>
+        <v>4950000128</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>34789</v>
+        <v>34453</v>
       </c>
       <c r="B42">
-        <v>500.71</v>
+        <v>450.91</v>
       </c>
       <c r="C42">
-        <v>5409999872</v>
+        <v>4190000128</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>34817</v>
+        <v>34485</v>
       </c>
       <c r="B43">
-        <v>514.71</v>
+        <v>456.5</v>
       </c>
       <c r="C43">
-        <v>4720000000</v>
+        <v>4040000000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>34850</v>
+        <v>34515</v>
       </c>
       <c r="B44">
-        <v>533.4</v>
+        <v>444.27</v>
       </c>
       <c r="C44">
-        <v>5649999872</v>
+        <v>4100000000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>34880</v>
+        <v>34544</v>
       </c>
       <c r="B45">
-        <v>544.75</v>
+        <v>458.26</v>
       </c>
       <c r="C45">
-        <v>5459999744</v>
+        <v>3550000128</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>34911</v>
+        <v>34577</v>
       </c>
       <c r="B46">
-        <v>562.05999999999995</v>
+        <v>475.49</v>
       </c>
       <c r="C46">
-        <v>5409999872</v>
+        <v>4550000128</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>34942</v>
+        <v>34607</v>
       </c>
       <c r="B47">
-        <v>561.88</v>
+        <v>462.69</v>
       </c>
       <c r="C47">
-        <v>5350000128</v>
+        <v>4310000128</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>34971</v>
+        <v>34638</v>
       </c>
       <c r="B48">
-        <v>584.41</v>
+        <v>472.35</v>
       </c>
       <c r="C48">
-        <v>5320000000</v>
+        <v>4630000128</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>35003</v>
+        <v>34668</v>
       </c>
       <c r="B49">
-        <v>581.5</v>
+        <v>453.69</v>
       </c>
       <c r="C49">
-        <v>6230000128</v>
+        <v>4510000128</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>35033</v>
+        <v>34698</v>
       </c>
       <c r="B50">
-        <v>605.37</v>
+        <v>459.27</v>
       </c>
       <c r="C50">
-        <v>5529999872</v>
+        <v>4269999872</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>35062</v>
+        <v>34730</v>
       </c>
       <c r="B51">
-        <v>615.92999999999995</v>
+        <v>470.42</v>
       </c>
       <c r="C51">
-        <v>5600000000</v>
+        <v>3980000000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>35095</v>
+        <v>34758</v>
       </c>
       <c r="B52">
-        <v>636.02</v>
+        <v>487.39</v>
       </c>
       <c r="C52">
-        <v>7430000128</v>
+        <v>3790000128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>35124</v>
+        <v>34789</v>
       </c>
       <c r="B53">
-        <v>640.42999999999995</v>
+        <v>500.71</v>
       </c>
       <c r="C53">
-        <v>6680000000</v>
+        <v>5409999872</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>35153</v>
+        <v>34817</v>
       </c>
       <c r="B54">
-        <v>645.5</v>
+        <v>514.71</v>
       </c>
       <c r="C54">
-        <v>6929999872</v>
+        <v>4720000000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>35185</v>
+        <v>34850</v>
       </c>
       <c r="B55">
-        <v>654.16999999999996</v>
+        <v>533.4</v>
       </c>
       <c r="C55">
-        <v>6640000000</v>
+        <v>5649999872</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>35216</v>
+        <v>34880</v>
       </c>
       <c r="B56">
-        <v>669.12</v>
+        <v>544.75</v>
       </c>
       <c r="C56">
-        <v>6380000256</v>
+        <v>5459999744</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>35244</v>
+        <v>34911</v>
       </c>
       <c r="B57">
-        <v>670.63</v>
+        <v>562.05999999999995</v>
       </c>
       <c r="C57">
-        <v>5640000000</v>
+        <v>5409999872</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>35277</v>
+        <v>34942</v>
       </c>
       <c r="B58">
-        <v>639.95000000000005</v>
+        <v>561.88</v>
       </c>
       <c r="C58">
-        <v>6830000128</v>
+        <v>5350000128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>35307</v>
+        <v>34971</v>
       </c>
       <c r="B59">
-        <v>651.99</v>
+        <v>584.41</v>
       </c>
       <c r="C59">
-        <v>5420000256</v>
+        <v>5320000000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>35338</v>
+        <v>35003</v>
       </c>
       <c r="B60">
-        <v>687.31</v>
+        <v>581.5</v>
       </c>
       <c r="C60">
-        <v>5980000256</v>
+        <v>6230000128</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>35369</v>
+        <v>35033</v>
       </c>
       <c r="B61">
-        <v>705.27</v>
+        <v>605.37</v>
       </c>
       <c r="C61">
-        <v>7209999872</v>
+        <v>5529999872</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>35398</v>
+        <v>35062</v>
       </c>
       <c r="B62">
-        <v>757.02</v>
+        <v>615.92999999999995</v>
       </c>
       <c r="C62">
-        <v>6710000128</v>
+        <v>5600000000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>35430</v>
+        <v>35095</v>
       </c>
       <c r="B63">
-        <v>740.74</v>
+        <v>636.02</v>
       </c>
       <c r="C63">
-        <v>6860000256</v>
+        <v>7430000128</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>35461</v>
+        <v>35124</v>
       </c>
       <c r="B64">
-        <v>786.16</v>
+        <v>640.42999999999995</v>
       </c>
       <c r="C64">
-        <v>8999999488</v>
+        <v>6680000000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>35489</v>
+        <v>35153</v>
       </c>
       <c r="B65">
-        <v>790.82</v>
+        <v>645.5</v>
       </c>
       <c r="C65">
-        <v>7699999744</v>
+        <v>6929999872</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>35520</v>
+        <v>35185</v>
       </c>
       <c r="B66">
-        <v>757.12</v>
+        <v>654.16999999999996</v>
       </c>
       <c r="C66">
-        <v>8160000000</v>
+        <v>6640000000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>35550</v>
+        <v>35216</v>
       </c>
       <c r="B67">
-        <v>801.34</v>
+        <v>669.12</v>
       </c>
       <c r="C67">
-        <v>8520000000</v>
+        <v>6380000256</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>35580</v>
+        <v>35244</v>
       </c>
       <c r="B68">
-        <v>848.28</v>
+        <v>670.63</v>
       </c>
       <c r="C68">
-        <v>8230000128</v>
+        <v>5640000000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>35611</v>
+        <v>35277</v>
       </c>
       <c r="B69">
-        <v>885.14</v>
+        <v>639.95000000000005</v>
       </c>
       <c r="C69">
-        <v>8430000128</v>
+        <v>6830000128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>35642</v>
+        <v>35307</v>
       </c>
       <c r="B70">
-        <v>954.29</v>
+        <v>651.99</v>
       </c>
       <c r="C70">
-        <v>9600000000</v>
+        <v>5420000256</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>35671</v>
+        <v>35338</v>
       </c>
       <c r="B71">
-        <v>899.47</v>
+        <v>687.31</v>
       </c>
       <c r="C71">
-        <v>8979999744</v>
+        <v>5980000256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>35703</v>
+        <v>35369</v>
       </c>
       <c r="B72">
-        <v>947.28</v>
+        <v>705.27</v>
       </c>
       <c r="C72">
-        <v>9040000000</v>
+        <v>7209999872</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>35734</v>
+        <v>35398</v>
       </c>
       <c r="B73">
-        <v>914.62</v>
+        <v>757.02</v>
       </c>
       <c r="C73">
-        <v>11909999616</v>
+        <v>6710000128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>35762</v>
+        <v>35430</v>
       </c>
       <c r="B74">
-        <v>955.4</v>
+        <v>740.74</v>
       </c>
       <c r="C74">
-        <v>8390000128</v>
+        <v>6860000256</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>35795</v>
+        <v>35461</v>
       </c>
       <c r="B75">
-        <v>970.43</v>
+        <v>786.16</v>
       </c>
       <c r="C75">
-        <v>9880000512</v>
+        <v>8999999488</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>35825</v>
+        <v>35489</v>
       </c>
       <c r="B76">
-        <v>980.28</v>
+        <v>790.82</v>
       </c>
       <c r="C76">
-        <v>10449999872</v>
+        <v>7699999744</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>35853</v>
+        <v>35520</v>
       </c>
       <c r="B77">
-        <v>1049.3399999999999</v>
+        <v>757.12</v>
       </c>
       <c r="C77">
-        <v>9420000256</v>
+        <v>8160000000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>35885</v>
+        <v>35550</v>
       </c>
       <c r="B78">
-        <v>1101.75</v>
+        <v>801.34</v>
       </c>
       <c r="C78">
-        <v>11160000512</v>
+        <v>8520000000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>35915</v>
+        <v>35580</v>
       </c>
       <c r="B79">
-        <v>1111.75</v>
+        <v>848.28</v>
       </c>
       <c r="C79">
-        <v>10780000256</v>
+        <v>8230000128</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>35944</v>
+        <v>35611</v>
       </c>
       <c r="B80">
-        <v>1090.82</v>
+        <v>885.14</v>
       </c>
       <c r="C80">
-        <v>9180000256</v>
+        <v>8430000128</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>35976</v>
+        <v>35642</v>
       </c>
       <c r="B81">
-        <v>1133.8399999999999</v>
+        <v>954.29</v>
       </c>
       <c r="C81">
-        <v>11230000128</v>
+        <v>9600000000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>36007</v>
+        <v>35671</v>
       </c>
       <c r="B82">
-        <v>1120.67</v>
+        <v>899.47</v>
       </c>
       <c r="C82">
-        <v>12209999872</v>
+        <v>8979999744</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>36038</v>
+        <v>35703</v>
       </c>
       <c r="B83">
-        <v>957.28</v>
+        <v>947.28</v>
       </c>
       <c r="C83">
-        <v>13189999616</v>
+        <v>9040000000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>36068</v>
+        <v>35734</v>
       </c>
       <c r="B84">
-        <v>1017.01</v>
+        <v>914.62</v>
       </c>
       <c r="C84">
-        <v>14680000512</v>
+        <v>11909999616</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>36098</v>
+        <v>35762</v>
       </c>
       <c r="B85">
-        <v>1098.67</v>
+        <v>955.4</v>
       </c>
       <c r="C85">
-        <v>16780000256</v>
+        <v>8390000128</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>36129</v>
+        <v>35795</v>
       </c>
       <c r="B86">
-        <v>1163.6300000000001</v>
+        <v>970.43</v>
       </c>
       <c r="C86">
-        <v>11640000512</v>
+        <v>9880000512</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>36160</v>
+        <v>35825</v>
       </c>
       <c r="B87">
-        <v>1229.23</v>
+        <v>980.28</v>
       </c>
       <c r="C87">
-        <v>12540000256</v>
+        <v>10449999872</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>36189</v>
+        <v>35853</v>
       </c>
       <c r="B88">
-        <v>1279.6400000000001</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="C88">
-        <v>14609999872</v>
+        <v>9420000256</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>36217</v>
+        <v>35885</v>
       </c>
       <c r="B89">
-        <v>1238.33</v>
+        <v>1101.75</v>
       </c>
       <c r="C89">
-        <v>13440000000</v>
+        <v>11160000512</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>36250</v>
+        <v>35915</v>
       </c>
       <c r="B90">
-        <v>1286.3699999999999</v>
+        <v>1111.75</v>
       </c>
       <c r="C90">
-        <v>16309999616</v>
+        <v>10780000256</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>36280</v>
+        <v>35944</v>
       </c>
       <c r="B91">
-        <v>1335.18</v>
+        <v>1090.82</v>
       </c>
       <c r="C91">
-        <v>16910000128</v>
+        <v>9180000256</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>36311</v>
+        <v>35976</v>
       </c>
       <c r="B92">
-        <v>1301.8399999999999</v>
+        <v>1133.8399999999999</v>
       </c>
       <c r="C92">
-        <v>14469999616</v>
+        <v>11230000128</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>36341</v>
+        <v>36007</v>
       </c>
       <c r="B93">
-        <v>1372.71</v>
+        <v>1120.67</v>
       </c>
       <c r="C93">
-        <v>14510000128</v>
+        <v>12209999872</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>36371</v>
+        <v>36038</v>
       </c>
       <c r="B94">
-        <v>1328.72</v>
+        <v>957.28</v>
       </c>
       <c r="C94">
-        <v>13779999744</v>
+        <v>13189999616</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>36403</v>
+        <v>36068</v>
       </c>
       <c r="B95">
-        <v>1320.41</v>
+        <v>1017.01</v>
       </c>
       <c r="C95">
-        <v>14899999744</v>
+        <v>14680000512</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>36433</v>
+        <v>36098</v>
       </c>
       <c r="B96">
-        <v>1282.71</v>
+        <v>1098.67</v>
       </c>
       <c r="C96">
-        <v>15749999616</v>
+        <v>16780000256</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>36462</v>
+        <v>36129</v>
       </c>
       <c r="B97">
-        <v>1362.93</v>
+        <v>1163.6300000000001</v>
       </c>
       <c r="C97">
-        <v>17840001024</v>
+        <v>11640000512</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>36494</v>
+        <v>36160</v>
       </c>
       <c r="B98">
-        <v>1388.91</v>
+        <v>1229.23</v>
       </c>
       <c r="C98">
-        <v>17200001024</v>
+        <v>12540000256</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>36525</v>
+        <v>36189</v>
       </c>
       <c r="B99">
-        <v>1469.25</v>
+        <v>1279.6400000000001</v>
       </c>
       <c r="C99">
-        <v>18499999744</v>
+        <v>14609999872</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>36556</v>
+        <v>36217</v>
       </c>
       <c r="B100">
-        <v>1394.46</v>
+        <v>1238.33</v>
       </c>
       <c r="C100">
-        <v>22439999488</v>
+        <v>13440000000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>36585</v>
+        <v>36250</v>
       </c>
       <c r="B101">
-        <v>1366.42</v>
+        <v>1286.3699999999999</v>
       </c>
       <c r="C101">
-        <v>20860000256</v>
+        <v>16309999616</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>36616</v>
+        <v>36280</v>
       </c>
       <c r="B102">
-        <v>1498.58</v>
+        <v>1335.18</v>
       </c>
       <c r="C102">
-        <v>27050000384</v>
+        <v>16910000128</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>36644</v>
+        <v>36311</v>
       </c>
       <c r="B103">
-        <v>1452.43</v>
+        <v>1301.8399999999999</v>
       </c>
       <c r="C103">
-        <v>22869999616</v>
+        <v>14469999616</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>36677</v>
+        <v>36341</v>
       </c>
       <c r="B104">
-        <v>1420.6</v>
+        <v>1372.71</v>
       </c>
       <c r="C104">
-        <v>22109999104</v>
+        <v>14510000128</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>36707</v>
+        <v>36371</v>
       </c>
       <c r="B105">
-        <v>1454.6</v>
+        <v>1328.72</v>
       </c>
       <c r="C105">
-        <v>22549999616</v>
+        <v>13779999744</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>36738</v>
+        <v>36403</v>
       </c>
       <c r="B106">
-        <v>1430.83</v>
+        <v>1320.41</v>
       </c>
       <c r="C106">
-        <v>20660000768</v>
+        <v>14899999744</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>36769</v>
+        <v>36433</v>
       </c>
       <c r="B107">
-        <v>1517.68</v>
+        <v>1282.71</v>
       </c>
       <c r="C107">
-        <v>22470000640</v>
+        <v>15749999616</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>36798</v>
+        <v>36462</v>
       </c>
       <c r="B108">
-        <v>1436.51</v>
+        <v>1362.93</v>
       </c>
       <c r="C108">
-        <v>25109999616</v>
+        <v>17840001024</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>36830</v>
+        <v>36494</v>
       </c>
       <c r="B109">
-        <v>1429.4</v>
+        <v>1388.91</v>
       </c>
       <c r="C109">
-        <v>33219999744</v>
+        <v>17200001024</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>36860</v>
+        <v>36525</v>
       </c>
       <c r="B110">
-        <v>1314.95</v>
+        <v>1469.25</v>
       </c>
       <c r="C110">
-        <v>28490000384</v>
+        <v>18499999744</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>36889</v>
+        <v>36556</v>
       </c>
       <c r="B111">
-        <v>1320.28</v>
+        <v>1394.46</v>
       </c>
       <c r="C111">
-        <v>31979999232</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>36922</v>
+        <v>36585</v>
       </c>
       <c r="B112">
-        <v>1366.01</v>
+        <v>1366.42</v>
       </c>
       <c r="C112">
-        <v>37219999744</v>
+        <v>20860000256</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>36950</v>
+        <v>36616</v>
       </c>
       <c r="B113">
-        <v>1239.94</v>
+        <v>1498.58</v>
       </c>
       <c r="C113">
-        <v>29909999616</v>
+        <v>27050000384</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>36980</v>
+        <v>36644</v>
       </c>
       <c r="B114">
-        <v>1160.33</v>
+        <v>1452.43</v>
       </c>
       <c r="C114">
-        <v>38919999488</v>
+        <v>22869999616</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>37011</v>
+        <v>36677</v>
       </c>
       <c r="B115">
-        <v>1249.46</v>
+        <v>1420.6</v>
       </c>
       <c r="C115">
-        <v>35000000512</v>
+        <v>22109999104</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>37042</v>
+        <v>36707</v>
       </c>
       <c r="B116">
-        <v>1255.82</v>
+        <v>1454.6</v>
       </c>
       <c r="C116">
-        <v>31150000128</v>
+        <v>22549999616</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>37071</v>
+        <v>36738</v>
       </c>
       <c r="B117">
-        <v>1224.42</v>
+        <v>1430.83</v>
       </c>
       <c r="C117">
-        <v>29930000384</v>
+        <v>20660000768</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>37103</v>
+        <v>36769</v>
       </c>
       <c r="B118">
-        <v>1211.23</v>
+        <v>1517.68</v>
       </c>
       <c r="C118">
-        <v>28989999104</v>
+        <v>22470000640</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>37134</v>
+        <v>36798</v>
       </c>
       <c r="B119">
-        <v>1133.58</v>
+        <v>1436.51</v>
       </c>
       <c r="C119">
-        <v>28120000512</v>
+        <v>25109999616</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>37162</v>
+        <v>36830</v>
       </c>
       <c r="B120">
-        <v>1040.94</v>
+        <v>1429.4</v>
       </c>
       <c r="C120">
-        <v>30640001024</v>
+        <v>33219999744</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>37195</v>
+        <v>36860</v>
       </c>
       <c r="B121">
-        <v>1059.78</v>
+        <v>1314.95</v>
       </c>
       <c r="C121">
-        <v>39139999744</v>
+        <v>28490000384</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>37225</v>
+        <v>36889</v>
       </c>
       <c r="B122">
-        <v>1139.45</v>
+        <v>1320.28</v>
       </c>
       <c r="C122">
-        <v>33849999360</v>
+        <v>31979999232</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>37256</v>
+        <v>36922</v>
       </c>
       <c r="B123">
-        <v>1148.08</v>
+        <v>1366.01</v>
       </c>
       <c r="C123">
-        <v>30489999360</v>
+        <v>37219999744</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>37287</v>
+        <v>36950</v>
       </c>
       <c r="B124">
-        <v>1130.21</v>
+        <v>1239.94</v>
       </c>
       <c r="C124">
-        <v>36209999872</v>
+        <v>29909999616</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>37315</v>
+        <v>36980</v>
       </c>
       <c r="B125">
-        <v>1106.73</v>
+        <v>1160.33</v>
       </c>
       <c r="C125">
-        <v>33639999488</v>
+        <v>38919999488</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>37344</v>
+        <v>37011</v>
       </c>
       <c r="B126">
-        <v>1147.3900000000001</v>
+        <v>1249.46</v>
       </c>
       <c r="C126">
-        <v>33369999360</v>
+        <v>35000000512</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>37376</v>
+        <v>37042</v>
       </c>
       <c r="B127">
-        <v>1076.92</v>
+        <v>1255.82</v>
       </c>
       <c r="C127">
-        <v>36879998976</v>
+        <v>31150000128</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>37407</v>
+        <v>37071</v>
       </c>
       <c r="B128">
-        <v>1067.1400000000001</v>
+        <v>1224.42</v>
       </c>
       <c r="C128">
-        <v>36200001536</v>
+        <v>29930000384</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>37435</v>
+        <v>37103</v>
       </c>
       <c r="B129">
-        <v>989.81</v>
+        <v>1211.23</v>
       </c>
       <c r="C129">
-        <v>37319999488</v>
+        <v>28989999104</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>37468</v>
+        <v>37134</v>
       </c>
       <c r="B130">
-        <v>911.62</v>
+        <v>1133.58</v>
       </c>
       <c r="C130">
-        <v>46840000512</v>
+        <v>28120000512</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>37498</v>
+        <v>37162</v>
       </c>
       <c r="B131">
-        <v>916.07</v>
+        <v>1040.94</v>
       </c>
       <c r="C131">
-        <v>33419999232</v>
+        <v>30640001024</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>37529</v>
+        <v>37195</v>
       </c>
       <c r="B132">
-        <v>815.28</v>
+        <v>1059.78</v>
       </c>
       <c r="C132">
-        <v>32070000640</v>
+        <v>39139999744</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>37560</v>
+        <v>37225</v>
       </c>
       <c r="B133">
-        <v>885.76</v>
+        <v>1139.45</v>
       </c>
       <c r="C133">
-        <v>43520000000</v>
+        <v>33849999360</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>37589</v>
+        <v>37256</v>
       </c>
       <c r="B134">
-        <v>936.31</v>
+        <v>1148.08</v>
       </c>
       <c r="C134">
-        <v>33720000512</v>
+        <v>30489999360</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>37621</v>
+        <v>37287</v>
       </c>
       <c r="B135">
-        <v>879.82</v>
+        <v>1130.21</v>
       </c>
       <c r="C135">
-        <v>27929999360</v>
+        <v>36209999872</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>37652</v>
+        <v>37315</v>
       </c>
       <c r="B136">
-        <v>855.7</v>
+        <v>1106.73</v>
       </c>
       <c r="C136">
-        <v>33130000384</v>
+        <v>33639999488</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>37680</v>
+        <v>37344</v>
       </c>
       <c r="B137">
-        <v>841.15</v>
+        <v>1147.3900000000001</v>
       </c>
       <c r="C137">
-        <v>26219999232</v>
+        <v>33369999360</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>37711</v>
+        <v>37376</v>
       </c>
       <c r="B138">
-        <v>848.18</v>
+        <v>1076.92</v>
       </c>
       <c r="C138">
-        <v>31609999360</v>
+        <v>36879998976</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>37741</v>
+        <v>37407</v>
       </c>
       <c r="B139">
-        <v>916.92</v>
+        <v>1067.1400000000001</v>
       </c>
       <c r="C139">
-        <v>28779999232</v>
+        <v>36200001536</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>37771</v>
+        <v>37435</v>
       </c>
       <c r="B140">
-        <v>963.59</v>
+        <v>989.81</v>
       </c>
       <c r="C140">
-        <v>29250000896</v>
+        <v>37319999488</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>37802</v>
+        <v>37468</v>
       </c>
       <c r="B141">
-        <v>974.5</v>
+        <v>911.62</v>
       </c>
       <c r="C141">
-        <v>29489999872</v>
+        <v>46840000512</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>37833</v>
+        <v>37498</v>
       </c>
       <c r="B142">
-        <v>990.31</v>
+        <v>916.07</v>
       </c>
       <c r="C142">
-        <v>28089999360</v>
+        <v>33419999232</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>37862</v>
+        <v>37529</v>
       </c>
       <c r="B143">
-        <v>1008.01</v>
+        <v>815.28</v>
       </c>
       <c r="C143">
-        <v>21890000896</v>
+        <v>32070000640</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>37894</v>
+        <v>37560</v>
       </c>
       <c r="B144">
-        <v>995.97</v>
+        <v>885.76</v>
       </c>
       <c r="C144">
-        <v>26030000128</v>
+        <v>43520000000</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>37925</v>
+        <v>37589</v>
       </c>
       <c r="B145">
-        <v>1050.71</v>
+        <v>936.31</v>
       </c>
       <c r="C145">
-        <v>27950000128</v>
+        <v>33720000512</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>37953</v>
+        <v>37621</v>
       </c>
       <c r="B146">
-        <v>1058.2</v>
+        <v>879.82</v>
       </c>
       <c r="C146">
-        <v>20889999360</v>
+        <v>27929999360</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>37986</v>
+        <v>37652</v>
       </c>
       <c r="B147">
-        <v>1111.92</v>
+        <v>855.7</v>
       </c>
       <c r="C147">
-        <v>22809999360</v>
+        <v>33130000384</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>38016</v>
+        <v>37680</v>
       </c>
       <c r="B148">
-        <v>1131.1300000000001</v>
+        <v>841.15</v>
       </c>
       <c r="C148">
-        <v>27320000512</v>
+        <v>26219999232</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>38044</v>
+        <v>37711</v>
       </c>
       <c r="B149">
-        <v>1144.94</v>
+        <v>848.18</v>
       </c>
       <c r="C149">
-        <v>22439999488</v>
+        <v>31609999360</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>38077</v>
+        <v>37741</v>
       </c>
       <c r="B150">
-        <v>1126.21</v>
+        <v>916.92</v>
       </c>
       <c r="C150">
-        <v>26260000768</v>
+        <v>28779999232</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>38107</v>
+        <v>37771</v>
       </c>
       <c r="B151">
-        <v>1107.31</v>
+        <v>963.59</v>
       </c>
       <c r="C151">
-        <v>24180000768</v>
+        <v>29250000896</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>38138</v>
+        <v>37802</v>
       </c>
       <c r="B152">
-        <v>1120.68</v>
+        <v>974.5</v>
       </c>
       <c r="C152">
-        <v>22439999488</v>
+        <v>29489999872</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>38168</v>
+        <v>37833</v>
       </c>
       <c r="B153">
-        <v>1140.8399999999999</v>
+        <v>990.31</v>
       </c>
       <c r="C153">
-        <v>21510000640</v>
+        <v>28089999360</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>38198</v>
+        <v>37862</v>
       </c>
       <c r="B154">
-        <v>1101.72</v>
+        <v>1008.01</v>
       </c>
       <c r="C154">
-        <v>23470000128</v>
+        <v>21890000896</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>38230</v>
+        <v>37894</v>
       </c>
       <c r="B155">
-        <v>1104.24</v>
+        <v>995.97</v>
       </c>
       <c r="C155">
-        <v>20490000384</v>
+        <v>26030000128</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>38260</v>
+        <v>37925</v>
       </c>
       <c r="B156">
-        <v>1114.58</v>
+        <v>1050.71</v>
       </c>
       <c r="C156">
-        <v>23260000256</v>
+        <v>27950000128</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>38289</v>
+        <v>37953</v>
       </c>
       <c r="B157">
-        <v>1130.2</v>
+        <v>1058.2</v>
       </c>
       <c r="C157">
-        <v>26470000640</v>
+        <v>20889999360</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>38321</v>
+        <v>37986</v>
       </c>
       <c r="B158">
-        <v>1173.82</v>
+        <v>1111.92</v>
       </c>
       <c r="C158">
-        <v>25479999488</v>
+        <v>22809999360</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>38352</v>
+        <v>38016</v>
       </c>
       <c r="B159">
-        <v>1211.92</v>
+        <v>1131.1300000000001</v>
       </c>
       <c r="C159">
-        <v>27000000512</v>
+        <v>27320000512</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>38383</v>
+        <v>38044</v>
       </c>
       <c r="B160">
-        <v>1181.27</v>
+        <v>1144.94</v>
       </c>
       <c r="C160">
-        <v>27399999488</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>38411</v>
+        <v>38077</v>
       </c>
       <c r="B161">
-        <v>1203.5999999999999</v>
+        <v>1126.21</v>
       </c>
       <c r="C161">
-        <v>24619999232</v>
+        <v>26260000768</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>38442</v>
+        <v>38107</v>
       </c>
       <c r="B162">
-        <v>1180.5899999999999</v>
+        <v>1107.31</v>
       </c>
       <c r="C162">
-        <v>29369999360</v>
+        <v>24180000768</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>38471</v>
+        <v>38138</v>
       </c>
       <c r="B163">
-        <v>1156.8499999999999</v>
+        <v>1120.68</v>
       </c>
       <c r="C163">
-        <v>29379999744</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>38503</v>
+        <v>38168</v>
       </c>
       <c r="B164">
-        <v>1191.5</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="C164">
-        <v>25589999616</v>
+        <v>21510000640</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>38533</v>
+        <v>38198</v>
       </c>
       <c r="B165">
-        <v>1191.33</v>
+        <v>1101.72</v>
       </c>
       <c r="C165">
-        <v>25849999360</v>
+        <v>23470000128</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>38562</v>
+        <v>38230</v>
       </c>
       <c r="B166">
-        <v>1234.18</v>
+        <v>1104.24</v>
       </c>
       <c r="C166">
-        <v>23860000768</v>
+        <v>20490000384</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>38595</v>
+        <v>38260</v>
       </c>
       <c r="B167">
-        <v>1220.33</v>
+        <v>1114.58</v>
       </c>
       <c r="C167">
-        <v>25240000512</v>
+        <v>23260000256</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>38625</v>
+        <v>38289</v>
       </c>
       <c r="B168">
-        <v>1228.81</v>
+        <v>1130.2</v>
       </c>
       <c r="C168">
-        <v>27229999104</v>
+        <v>26470000640</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>38656</v>
+        <v>38321</v>
       </c>
       <c r="B169">
-        <v>1207.01</v>
+        <v>1173.82</v>
       </c>
       <c r="C169">
-        <v>29760000000</v>
+        <v>25479999488</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>38686</v>
+        <v>38352</v>
       </c>
       <c r="B170">
-        <v>1249.48</v>
+        <v>1211.92</v>
       </c>
       <c r="C170">
-        <v>27239999488</v>
+        <v>27000000512</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>38716</v>
+        <v>38383</v>
       </c>
       <c r="B171">
-        <v>1248.29</v>
+        <v>1181.27</v>
       </c>
       <c r="C171">
-        <v>24779999232</v>
+        <v>27399999488</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>38748</v>
+        <v>38411</v>
       </c>
       <c r="B172">
-        <v>1280.0899999999999</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="C172">
-        <v>31349999616</v>
+        <v>24619999232</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>38776</v>
+        <v>38442</v>
       </c>
       <c r="B173">
-        <v>1280.6600000000001</v>
+        <v>1180.5899999999999</v>
       </c>
       <c r="C173">
-        <v>28939999232</v>
+        <v>29369999360</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>38807</v>
+        <v>38471</v>
       </c>
       <c r="B174">
-        <v>1294.83</v>
+        <v>1156.8499999999999</v>
       </c>
       <c r="C174">
-        <v>35150000128</v>
+        <v>29379999744</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>38835</v>
+        <v>38503</v>
       </c>
       <c r="B175">
-        <v>1310.6099999999999</v>
+        <v>1191.5</v>
       </c>
       <c r="C175">
-        <v>29639999488</v>
+        <v>25589999616</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>38868</v>
+        <v>38533</v>
       </c>
       <c r="B176">
-        <v>1270.0899999999999</v>
+        <v>1191.33</v>
       </c>
       <c r="C176">
-        <v>35899998208</v>
+        <v>25849999360</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>38898</v>
+        <v>38562</v>
       </c>
       <c r="B177">
-        <v>1270.2</v>
+        <v>1234.18</v>
       </c>
       <c r="C177">
-        <v>34530000896</v>
+        <v>23860000768</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>38929</v>
+        <v>38595</v>
       </c>
       <c r="B178">
-        <v>1276.6600000000001</v>
+        <v>1220.33</v>
       </c>
       <c r="C178">
-        <v>30050000896</v>
+        <v>25240000512</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>38960</v>
+        <v>38625</v>
       </c>
       <c r="B179">
-        <v>1303.82</v>
+        <v>1228.81</v>
       </c>
       <c r="C179">
-        <v>26659999744</v>
+        <v>27229999104</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>38989</v>
+        <v>38656</v>
       </c>
       <c r="B180">
-        <v>1335.85</v>
+        <v>1207.01</v>
       </c>
       <c r="C180">
-        <v>25890000896</v>
+        <v>29760000000</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>39021</v>
+        <v>38686</v>
       </c>
       <c r="B181">
-        <v>1377.94</v>
+        <v>1249.48</v>
       </c>
       <c r="C181">
-        <v>28970000384</v>
+        <v>27239999488</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>39051</v>
+        <v>38716</v>
       </c>
       <c r="B182">
-        <v>1400.63</v>
+        <v>1248.29</v>
       </c>
       <c r="C182">
-        <v>25760000000</v>
+        <v>24779999232</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>39080</v>
+        <v>38748</v>
       </c>
       <c r="B183">
-        <v>1418.3</v>
+        <v>1280.0899999999999</v>
       </c>
       <c r="C183">
-        <v>22210000896</v>
+        <v>31349999616</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>39113</v>
+        <v>38776</v>
       </c>
       <c r="B184">
-        <v>1438.24</v>
+        <v>1280.6600000000001</v>
       </c>
       <c r="C184">
-        <v>27040000000</v>
+        <v>28939999232</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>39141</v>
+        <v>38807</v>
       </c>
       <c r="B185">
-        <v>1406.82</v>
+        <v>1294.83</v>
       </c>
       <c r="C185">
-        <v>23320000512</v>
+        <v>35150000128</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>39171</v>
+        <v>38835</v>
       </c>
       <c r="B186">
-        <v>1420.86</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="C186">
-        <v>29739999232</v>
+        <v>29639999488</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>39202</v>
+        <v>38868</v>
       </c>
       <c r="B187">
-        <v>1482.37</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="C187">
-        <v>25739999232</v>
+        <v>35899998208</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>39233</v>
+        <v>38898</v>
       </c>
       <c r="B188">
-        <v>1530.62</v>
+        <v>1270.2</v>
       </c>
       <c r="C188">
-        <v>27640000512</v>
+        <v>34530000896</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>39262</v>
+        <v>38929</v>
       </c>
       <c r="B189">
-        <v>1503.35</v>
+        <v>1276.6600000000001</v>
       </c>
       <c r="C189">
-        <v>28060000256</v>
+        <v>30050000896</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>39294</v>
+        <v>38960</v>
       </c>
       <c r="B190">
-        <v>1455.28</v>
+        <v>1303.82</v>
       </c>
       <c r="C190">
-        <v>29340000256</v>
+        <v>26659999744</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>39325</v>
+        <v>38989</v>
       </c>
       <c r="B191">
-        <v>1473.99</v>
+        <v>1335.85</v>
       </c>
       <c r="C191">
-        <v>34850000896</v>
+        <v>25890000896</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>39353</v>
+        <v>39021</v>
       </c>
       <c r="B192">
-        <v>1526.75</v>
+        <v>1377.94</v>
       </c>
       <c r="C192">
-        <v>22279999488</v>
+        <v>28970000384</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>39386</v>
+        <v>39051</v>
       </c>
       <c r="B193">
-        <v>1549.38</v>
+        <v>1400.63</v>
       </c>
       <c r="C193">
-        <v>25940000768</v>
+        <v>25760000000</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>39416</v>
+        <v>39080</v>
       </c>
       <c r="B194">
-        <v>1481.14</v>
+        <v>1418.3</v>
       </c>
       <c r="C194">
-        <v>29600000000</v>
+        <v>22210000896</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>39447</v>
+        <v>39113</v>
       </c>
       <c r="B195">
-        <v>1468.36</v>
+        <v>1438.24</v>
       </c>
       <c r="C195">
-        <v>21730000896</v>
+        <v>27040000000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>39478</v>
+        <v>39141</v>
       </c>
       <c r="B196">
-        <v>1378.55</v>
+        <v>1406.82</v>
       </c>
       <c r="C196">
-        <v>36200001536</v>
+        <v>23320000512</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>39507</v>
+        <v>39171</v>
       </c>
       <c r="B197">
-        <v>1330.63</v>
+        <v>1420.86</v>
       </c>
       <c r="C197">
-        <v>27499999232</v>
+        <v>29739999232</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>39538</v>
+        <v>39202</v>
       </c>
       <c r="B198">
-        <v>1322.7</v>
+        <v>1482.37</v>
       </c>
       <c r="C198">
-        <v>29649999872</v>
+        <v>25739999232</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>39568</v>
+        <v>39233</v>
       </c>
       <c r="B199">
-        <v>1385.59</v>
+        <v>1530.62</v>
       </c>
       <c r="C199">
-        <v>24629999616</v>
+        <v>27640000512</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>39598</v>
+        <v>39262</v>
       </c>
       <c r="B200">
-        <v>1400.38</v>
+        <v>1503.35</v>
       </c>
       <c r="C200">
-        <v>22549999616</v>
+        <v>28060000256</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>39629</v>
+        <v>39294</v>
       </c>
       <c r="B201">
-        <v>1280</v>
+        <v>1455.28</v>
       </c>
       <c r="C201">
-        <v>25560000512</v>
+        <v>29340000256</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>39660</v>
+        <v>39325</v>
       </c>
       <c r="B202">
-        <v>1267.3800000000001</v>
+        <v>1473.99</v>
       </c>
       <c r="C202">
-        <v>29269999616</v>
+        <v>34850000896</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>39689</v>
+        <v>39353</v>
       </c>
       <c r="B203">
-        <v>1282.83</v>
+        <v>1526.75</v>
       </c>
       <c r="C203">
-        <v>19000000512</v>
+        <v>22279999488</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>39721</v>
+        <v>39386</v>
       </c>
       <c r="B204">
-        <v>1166.3599999999999</v>
+        <v>1549.38</v>
       </c>
       <c r="C204">
-        <v>31430000640</v>
+        <v>25940000768</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>39752</v>
+        <v>39416</v>
       </c>
       <c r="B205">
-        <v>968.75</v>
+        <v>1481.14</v>
       </c>
       <c r="C205">
-        <v>36180000768</v>
+        <v>29600000000</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>39780</v>
+        <v>39447</v>
       </c>
       <c r="B206">
-        <v>896.24</v>
+        <v>1468.36</v>
       </c>
       <c r="C206">
-        <v>25969999872</v>
+        <v>21730000896</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>39813</v>
+        <v>39478</v>
       </c>
       <c r="B207">
-        <v>903.25</v>
+        <v>1378.55</v>
       </c>
       <c r="C207">
-        <v>24519999488</v>
+        <v>36200001536</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>39843</v>
+        <v>39507</v>
       </c>
       <c r="B208">
-        <v>825.88</v>
+        <v>1330.63</v>
       </c>
       <c r="C208">
-        <v>24920000512</v>
+        <v>27499999232</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>39871</v>
+        <v>39538</v>
       </c>
       <c r="B209">
-        <v>735.09</v>
+        <v>1322.7</v>
       </c>
       <c r="C209">
-        <v>27050000384</v>
+        <v>29649999872</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>39903</v>
+        <v>39568</v>
       </c>
       <c r="B210">
-        <v>797.87</v>
+        <v>1385.59</v>
       </c>
       <c r="C210">
-        <v>35000000512</v>
+        <v>24629999616</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>39933</v>
+        <v>39598</v>
       </c>
       <c r="B211">
-        <v>872.81</v>
+        <v>1400.38</v>
       </c>
       <c r="C211">
-        <v>29040001024</v>
+        <v>22549999616</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>39962</v>
+        <v>39629</v>
       </c>
       <c r="B212">
-        <v>919.14</v>
+        <v>1280</v>
       </c>
       <c r="C212">
-        <v>25899999232</v>
+        <v>25560000512</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>39994</v>
+        <v>39660</v>
       </c>
       <c r="B213">
-        <v>919.32</v>
+        <v>1267.3800000000001</v>
       </c>
       <c r="C213">
-        <v>24170000384</v>
+        <v>29269999616</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>40025</v>
+        <v>39689</v>
       </c>
       <c r="B214">
-        <v>987.48</v>
+        <v>1282.83</v>
       </c>
       <c r="C214">
-        <v>23430000640</v>
+        <v>19000000512</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>40056</v>
+        <v>39721</v>
       </c>
       <c r="B215">
-        <v>1020.63</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="C215">
-        <v>21760000000</v>
+        <v>31430000640</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>40086</v>
+        <v>39752</v>
       </c>
       <c r="B216">
-        <v>1057.08</v>
+        <v>968.75</v>
       </c>
       <c r="C216">
-        <v>24629999616</v>
+        <v>36180000768</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>40116</v>
+        <v>39780</v>
       </c>
       <c r="B217">
-        <v>1036.2</v>
+        <v>896.24</v>
       </c>
       <c r="C217">
-        <v>24619999232</v>
+        <v>25969999872</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>40147</v>
+        <v>39813</v>
       </c>
       <c r="B218">
-        <v>1095.6300000000001</v>
+        <v>903.25</v>
       </c>
       <c r="C218">
-        <v>18690000896</v>
+        <v>24519999488</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>40178</v>
+        <v>39843</v>
       </c>
       <c r="B219">
-        <v>1115.0999999999999</v>
+        <v>825.88</v>
       </c>
       <c r="C219">
-        <v>20519999488</v>
+        <v>24920000512</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>40207</v>
+        <v>39871</v>
       </c>
       <c r="B220">
-        <v>1073.8699999999999</v>
+        <v>735.09</v>
       </c>
       <c r="C220">
-        <v>20049999872</v>
+        <v>27050000384</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>40235</v>
+        <v>39903</v>
       </c>
       <c r="B221">
-        <v>1104.49</v>
+        <v>797.87</v>
       </c>
       <c r="C221">
-        <v>19249999872</v>
+        <v>35000000512</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>40268</v>
+        <v>39933</v>
       </c>
       <c r="B222">
-        <v>1169.43</v>
+        <v>872.81</v>
       </c>
       <c r="C222">
-        <v>21109999616</v>
+        <v>29040001024</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>40298</v>
+        <v>39962</v>
       </c>
       <c r="B223">
-        <v>1186.69</v>
+        <v>919.14</v>
       </c>
       <c r="C223">
-        <v>21689999360</v>
+        <v>25899999232</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>40329</v>
+        <v>39994</v>
       </c>
       <c r="B224">
-        <v>1089.4100000000001</v>
+        <v>919.32</v>
       </c>
       <c r="C224">
-        <v>27530000384</v>
+        <v>24170000384</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>40359</v>
+        <v>40025</v>
       </c>
       <c r="B225">
-        <v>1030.71</v>
+        <v>987.48</v>
       </c>
       <c r="C225">
-        <v>24340000768</v>
+        <v>23430000640</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>40389</v>
+        <v>40056</v>
       </c>
       <c r="B226">
-        <v>1101.5999999999999</v>
+        <v>1020.63</v>
       </c>
       <c r="C226">
-        <v>20579999744</v>
+        <v>21760000000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>40421</v>
+        <v>40086</v>
       </c>
       <c r="B227">
-        <v>1049.33</v>
+        <v>1057.08</v>
       </c>
       <c r="C227">
-        <v>18830000128</v>
+        <v>24629999616</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>40451</v>
+        <v>40116</v>
       </c>
       <c r="B228">
-        <v>1141.2</v>
+        <v>1036.2</v>
       </c>
       <c r="C228">
-        <v>18080000000</v>
+        <v>24619999232</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>40480</v>
+        <v>40147</v>
       </c>
       <c r="B229">
-        <v>1183.26</v>
+        <v>1095.6300000000001</v>
       </c>
       <c r="C229">
-        <v>18360000512</v>
+        <v>18690000896</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>40512</v>
+        <v>40178</v>
       </c>
       <c r="B230">
-        <v>1180.55</v>
+        <v>1115.0999999999999</v>
       </c>
       <c r="C230">
-        <v>17570000896</v>
+        <v>20519999488</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>40543</v>
+        <v>40207</v>
       </c>
       <c r="B231">
-        <v>1257.6400000000001</v>
+        <v>1073.8699999999999</v>
       </c>
       <c r="C231">
-        <v>16110000128</v>
+        <v>20049999872</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>40574</v>
+        <v>40235</v>
       </c>
       <c r="B232">
-        <v>1286.1199999999999</v>
+        <v>1104.49</v>
       </c>
       <c r="C232">
-        <v>17269999616</v>
+        <v>19249999872</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>40602</v>
+        <v>40268</v>
       </c>
       <c r="B233">
-        <v>1327.22</v>
+        <v>1169.43</v>
       </c>
       <c r="C233">
-        <v>15600000000</v>
+        <v>21109999616</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>40633</v>
+        <v>40298</v>
       </c>
       <c r="B234">
-        <v>1325.83</v>
+        <v>1186.69</v>
       </c>
       <c r="C234">
-        <v>19029999616</v>
+        <v>21689999360</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>40662</v>
+        <v>40329</v>
       </c>
       <c r="B235">
-        <v>1363.61</v>
+        <v>1089.4100000000001</v>
       </c>
       <c r="C235">
-        <v>14880000000</v>
+        <v>27530000384</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>40694</v>
+        <v>40359</v>
       </c>
       <c r="B236">
-        <v>1345.2</v>
+        <v>1030.71</v>
       </c>
       <c r="C236">
-        <v>16060000256</v>
+        <v>24340000768</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>40724</v>
+        <v>40389</v>
       </c>
       <c r="B237">
-        <v>1320.64</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="C237">
-        <v>17390000128</v>
+        <v>20579999744</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>40753</v>
+        <v>40421</v>
       </c>
       <c r="B238">
-        <v>1292.28</v>
+        <v>1049.33</v>
       </c>
       <c r="C238">
-        <v>14439999488</v>
+        <v>18830000128</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>40786</v>
+        <v>40451</v>
       </c>
       <c r="B239">
-        <v>1218.8900000000001</v>
+        <v>1141.2</v>
       </c>
       <c r="C239">
-        <v>26659999744</v>
+        <v>18080000000</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>40816</v>
+        <v>40480</v>
       </c>
       <c r="B240">
-        <v>1131.42</v>
+        <v>1183.26</v>
       </c>
       <c r="C240">
-        <v>19640000512</v>
+        <v>18360000512</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>40847</v>
+        <v>40512</v>
       </c>
       <c r="B241">
-        <v>1253.3</v>
+        <v>1180.55</v>
       </c>
       <c r="C241">
-        <v>18160001024</v>
+        <v>17570000896</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>40877</v>
+        <v>40543</v>
       </c>
       <c r="B242">
-        <v>1246.96</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="C242">
-        <v>15459999744</v>
+        <v>16110000128</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>40907</v>
+        <v>40574</v>
       </c>
       <c r="B243">
-        <v>1257.6099999999999</v>
+        <v>1286.1199999999999</v>
       </c>
       <c r="C243">
-        <v>13569999872</v>
+        <v>17269999616</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>40939</v>
+        <v>40602</v>
       </c>
       <c r="B244">
-        <v>1312.41</v>
+        <v>1327.22</v>
       </c>
       <c r="C244">
-        <v>13319999488</v>
+        <v>15600000000</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>40968</v>
+        <v>40633</v>
       </c>
       <c r="B245">
-        <v>1365.68</v>
+        <v>1325.83</v>
       </c>
       <c r="C245">
-        <v>12480000000</v>
+        <v>19029999616</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>40998</v>
+        <v>40662</v>
       </c>
       <c r="B246">
-        <v>1408.47</v>
+        <v>1363.61</v>
       </c>
       <c r="C246">
-        <v>13920000000</v>
+        <v>14880000000</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>41029</v>
+        <v>40694</v>
       </c>
       <c r="B247">
-        <v>1397.91</v>
+        <v>1345.2</v>
       </c>
       <c r="C247">
-        <v>12529999872</v>
+        <v>16060000256</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>41060</v>
+        <v>40724</v>
       </c>
       <c r="B248">
-        <v>1310.33</v>
+        <v>1320.64</v>
       </c>
       <c r="C248">
-        <v>14490000384</v>
+        <v>17390000128</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>41089</v>
+        <v>40753</v>
       </c>
       <c r="B249">
-        <v>1362.16</v>
+        <v>1292.28</v>
       </c>
       <c r="C249">
-        <v>13959999488</v>
+        <v>14439999488</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>41121</v>
+        <v>40786</v>
       </c>
       <c r="B250">
-        <v>1379.32</v>
+        <v>1218.8900000000001</v>
       </c>
       <c r="C250">
-        <v>12359999488</v>
+        <v>26659999744</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>41152</v>
+        <v>40816</v>
       </c>
       <c r="B251">
-        <v>1406.58</v>
+        <v>1131.42</v>
       </c>
       <c r="C251">
-        <v>11340000256</v>
+        <v>19640000512</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>41180</v>
+        <v>40847</v>
       </c>
       <c r="B252">
-        <v>1440.67</v>
+        <v>1253.3</v>
       </c>
       <c r="C252">
-        <v>11420000256</v>
+        <v>18160001024</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>41213</v>
+        <v>40877</v>
       </c>
       <c r="B253">
-        <v>1412.16</v>
+        <v>1246.96</v>
       </c>
       <c r="C253">
-        <v>11509999616</v>
+        <v>15459999744</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>41243</v>
+        <v>40907</v>
       </c>
       <c r="B254">
-        <v>1416.18</v>
+        <v>1257.6099999999999</v>
       </c>
       <c r="C254">
-        <v>12120000512</v>
+        <v>13569999872</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>41274</v>
+        <v>40939</v>
       </c>
       <c r="B255">
-        <v>1426.19</v>
+        <v>1312.41</v>
       </c>
       <c r="C255">
-        <v>11379999744</v>
+        <v>13319999488</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>41305</v>
+        <v>40968</v>
       </c>
       <c r="B256">
-        <v>1498.11</v>
+        <v>1365.68</v>
       </c>
       <c r="C256">
-        <v>12019999744</v>
+        <v>12480000000</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>41333</v>
+        <v>40998</v>
       </c>
       <c r="B257">
-        <v>1514.68</v>
+        <v>1408.47</v>
       </c>
       <c r="C257">
-        <v>10849999872</v>
+        <v>13920000000</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>41362</v>
+        <v>41029</v>
       </c>
       <c r="B258">
-        <v>1569.19</v>
+        <v>1397.91</v>
       </c>
       <c r="C258">
-        <v>11009999872</v>
+        <v>12529999872</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>41394</v>
+        <v>41060</v>
       </c>
       <c r="B259">
-        <v>1597.57</v>
+        <v>1310.33</v>
       </c>
       <c r="C259">
-        <v>12460000256</v>
+        <v>14490000384</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>41425</v>
+        <v>41089</v>
       </c>
       <c r="B260">
-        <v>1630.74</v>
+        <v>1362.16</v>
       </c>
       <c r="C260">
-        <v>11980000256</v>
+        <v>13959999488</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>41453</v>
+        <v>41121</v>
       </c>
       <c r="B261">
-        <v>1606.28</v>
+        <v>1379.32</v>
       </c>
       <c r="C261">
-        <v>12689999872</v>
+        <v>12359999488</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>41486</v>
+        <v>41152</v>
       </c>
       <c r="B262">
-        <v>1685.73</v>
+        <v>1406.58</v>
       </c>
       <c r="C262">
-        <v>11559999488</v>
+        <v>11340000256</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>41516</v>
+        <v>41180</v>
       </c>
       <c r="B263">
-        <v>1632.97</v>
+        <v>1440.67</v>
       </c>
       <c r="C263">
-        <v>10060000256</v>
+        <v>11420000256</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>41547</v>
+        <v>41213</v>
       </c>
       <c r="B264">
-        <v>1681.55</v>
+        <v>1412.16</v>
       </c>
       <c r="C264">
-        <v>10680000512</v>
+        <v>11509999616</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>41578</v>
+        <v>41243</v>
       </c>
       <c r="B265">
-        <v>1756.54</v>
+        <v>1416.18</v>
       </c>
       <c r="C265">
-        <v>12110000128</v>
+        <v>12120000512</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>41607</v>
+        <v>41274</v>
       </c>
       <c r="B266">
-        <v>1805.81</v>
+        <v>1426.19</v>
       </c>
       <c r="C266">
-        <v>9909999616</v>
+        <v>11379999744</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>41639</v>
+        <v>41305</v>
       </c>
       <c r="B267">
-        <v>1848.36</v>
+        <v>1498.11</v>
       </c>
       <c r="C267">
-        <v>10789999616</v>
+        <v>12019999744</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>41670</v>
+        <v>41333</v>
       </c>
       <c r="B268">
-        <v>1782.59</v>
+        <v>1514.68</v>
       </c>
       <c r="C268">
-        <v>12090000384</v>
+        <v>10849999872</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>41698</v>
+        <v>41362</v>
       </c>
       <c r="B269">
-        <v>1859.45</v>
+        <v>1569.19</v>
       </c>
       <c r="C269">
-        <v>10979999744</v>
+        <v>11009999872</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>41729</v>
+        <v>41394</v>
       </c>
       <c r="B270">
-        <v>1872.34</v>
+        <v>1597.57</v>
       </c>
       <c r="C270">
-        <v>11760000000</v>
+        <v>12460000256</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>41759</v>
+        <v>41425</v>
       </c>
       <c r="B271">
-        <v>1883.95</v>
+        <v>1630.74</v>
       </c>
       <c r="C271">
-        <v>12140000256</v>
+        <v>11980000256</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>41789</v>
+        <v>41453</v>
       </c>
       <c r="B272">
-        <v>1923.57</v>
+        <v>1606.28</v>
       </c>
       <c r="C272">
-        <v>10010000384</v>
+        <v>12689999872</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>41820</v>
+        <v>41486</v>
       </c>
       <c r="B273">
-        <v>1960.23</v>
+        <v>1685.73</v>
       </c>
       <c r="C273">
-        <v>10430000128</v>
+        <v>11559999488</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>41851</v>
+        <v>41516</v>
       </c>
       <c r="B274">
-        <v>1930.67</v>
+        <v>1632.97</v>
       </c>
       <c r="C274">
-        <v>10480000000</v>
+        <v>10060000256</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>41880</v>
+        <v>41547</v>
       </c>
       <c r="B275">
-        <v>2003.37</v>
+        <v>1681.55</v>
       </c>
       <c r="C275">
-        <v>8869999616</v>
+        <v>10680000512</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>41912</v>
+        <v>41578</v>
       </c>
       <c r="B276">
-        <v>1972.29</v>
+        <v>1756.54</v>
       </c>
       <c r="C276">
-        <v>11459999744</v>
+        <v>12110000128</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>41943</v>
+        <v>41607</v>
       </c>
       <c r="B277">
-        <v>2018.05</v>
+        <v>1805.81</v>
       </c>
       <c r="C277">
-        <v>14529999872</v>
+        <v>9909999616</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>41971</v>
+        <v>41639</v>
       </c>
       <c r="B278">
-        <v>2067.56</v>
+        <v>1848.36</v>
       </c>
       <c r="C278">
-        <v>9660000256</v>
+        <v>10789999616</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>42004</v>
+        <v>41670</v>
       </c>
       <c r="B279">
-        <v>2058.9</v>
+        <v>1782.59</v>
       </c>
       <c r="C279">
-        <v>12620000256</v>
+        <v>12090000384</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>42034</v>
+        <v>41698</v>
       </c>
       <c r="B280">
-        <v>1994.99</v>
+        <v>1859.45</v>
       </c>
       <c r="C280">
-        <v>12419999744</v>
+        <v>10979999744</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>42062</v>
+        <v>41729</v>
       </c>
       <c r="B281">
-        <v>2104.5</v>
+        <v>1872.34</v>
       </c>
       <c r="C281">
-        <v>10529999872</v>
+        <v>11760000000</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>42094</v>
+        <v>41759</v>
       </c>
       <c r="B282">
-        <v>2067.89</v>
+        <v>1883.95</v>
       </c>
       <c r="C282">
-        <v>13230000128</v>
+        <v>12140000256</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>42124</v>
+        <v>41789</v>
       </c>
       <c r="B283">
-        <v>2085.5100000000002</v>
+        <v>1923.57</v>
       </c>
       <c r="C283">
-        <v>11370000384</v>
+        <v>10010000384</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>42153</v>
+        <v>41820</v>
       </c>
       <c r="B284">
-        <v>2107.39</v>
+        <v>1960.23</v>
       </c>
       <c r="C284">
         <v>10430000128</v>
@@ -3536,1008 +3540,1129 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>42185</v>
+        <v>41851</v>
       </c>
       <c r="B285">
-        <v>2063.11</v>
+        <v>1930.67</v>
       </c>
       <c r="C285">
-        <v>12540000256</v>
+        <v>10480000000</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>42216</v>
+        <v>41880</v>
       </c>
       <c r="B286">
-        <v>2103.84</v>
+        <v>2003.37</v>
       </c>
       <c r="C286">
-        <v>12400000000</v>
+        <v>8869999616</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>42247</v>
+        <v>41912</v>
       </c>
       <c r="B287">
-        <v>1972.18</v>
+        <v>1972.29</v>
       </c>
       <c r="C287">
-        <v>14739999744</v>
+        <v>11459999744</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>42277</v>
+        <v>41943</v>
       </c>
       <c r="B288">
-        <v>1920.03</v>
+        <v>2018.05</v>
       </c>
       <c r="C288">
-        <v>15630000128</v>
+        <v>14529999872</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>42307</v>
+        <v>41971</v>
       </c>
       <c r="B289">
-        <v>2079.36</v>
+        <v>2067.56</v>
       </c>
       <c r="C289">
-        <v>14689999872</v>
+        <v>9660000256</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>42338</v>
+        <v>42004</v>
       </c>
       <c r="B290">
-        <v>2080.41</v>
+        <v>2058.9</v>
       </c>
       <c r="C290">
-        <v>12010000384</v>
+        <v>12620000256</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>42369</v>
+        <v>42034</v>
       </c>
       <c r="B291">
-        <v>2043.94</v>
+        <v>1994.99</v>
       </c>
       <c r="C291">
-        <v>14419999744</v>
+        <v>12419999744</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>42398</v>
+        <v>42062</v>
       </c>
       <c r="B292">
-        <v>1940.24</v>
+        <v>2104.5</v>
       </c>
       <c r="C292">
-        <v>16499999744</v>
+        <v>10529999872</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>42429</v>
+        <v>42094</v>
       </c>
       <c r="B293">
-        <v>1932.23</v>
+        <v>2067.89</v>
       </c>
       <c r="C293">
-        <v>16129999872</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>42460</v>
+        <v>42124</v>
       </c>
       <c r="B294">
-        <v>2059.7399999999998</v>
+        <v>2085.5100000000002</v>
       </c>
       <c r="C294">
-        <v>14910000128</v>
+        <v>11370000384</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>42489</v>
+        <v>42153</v>
       </c>
       <c r="B295">
-        <v>2065.3000000000002</v>
+        <v>2107.39</v>
       </c>
       <c r="C295">
-        <v>13420000256</v>
+        <v>10430000128</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>42521</v>
+        <v>42185</v>
       </c>
       <c r="B296">
-        <v>2096.96</v>
+        <v>2063.11</v>
       </c>
       <c r="C296">
-        <v>12700000256</v>
+        <v>12540000256</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>42551</v>
+        <v>42216</v>
       </c>
       <c r="B297">
-        <v>2098.86</v>
+        <v>2103.84</v>
       </c>
       <c r="C297">
-        <v>14890000384</v>
+        <v>12400000000</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>42580</v>
+        <v>42247</v>
       </c>
       <c r="B298">
-        <v>2173.6</v>
+        <v>1972.18</v>
       </c>
       <c r="C298">
-        <v>11649999872</v>
+        <v>14739999744</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>42613</v>
+        <v>42277</v>
       </c>
       <c r="B299">
-        <v>2170.9499999999998</v>
+        <v>1920.03</v>
       </c>
       <c r="C299">
-        <v>11630000128</v>
+        <v>15630000128</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>42643</v>
+        <v>42307</v>
       </c>
       <c r="B300">
-        <v>2168.27</v>
+        <v>2079.36</v>
       </c>
       <c r="C300">
-        <v>13230000128</v>
+        <v>14689999872</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>42674</v>
+        <v>42338</v>
       </c>
       <c r="B301">
-        <v>2126.15</v>
+        <v>2080.41</v>
       </c>
       <c r="C301">
-        <v>11820000256</v>
+        <v>12010000384</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>42704</v>
+        <v>42369</v>
       </c>
       <c r="B302">
-        <v>2198.81</v>
+        <v>2043.94</v>
       </c>
       <c r="C302">
-        <v>14060000256</v>
+        <v>14419999744</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>42734</v>
+        <v>42398</v>
       </c>
       <c r="B303">
-        <v>2238.83</v>
+        <v>1940.24</v>
       </c>
       <c r="C303">
-        <v>12320000000</v>
+        <v>16499999744</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>42766</v>
+        <v>42429</v>
       </c>
       <c r="B304">
-        <v>2278.87</v>
+        <v>1932.23</v>
       </c>
       <c r="C304">
-        <v>11440000000</v>
+        <v>16129999872</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>42794</v>
+        <v>42460</v>
       </c>
       <c r="B305">
-        <v>2363.64</v>
+        <v>2059.7399999999998</v>
       </c>
       <c r="C305">
-        <v>10739999744</v>
+        <v>14910000128</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>42825</v>
+        <v>42489</v>
       </c>
       <c r="B306">
-        <v>2362.7199999999998</v>
+        <v>2065.3000000000002</v>
       </c>
       <c r="C306">
-        <v>13290000384</v>
+        <v>13420000256</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>42853</v>
+        <v>42521</v>
       </c>
       <c r="B307">
-        <v>2384.1999999999998</v>
+        <v>2096.96</v>
       </c>
       <c r="C307">
-        <v>10090000384</v>
+        <v>12700000256</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>42886</v>
+        <v>42551</v>
       </c>
       <c r="B308">
-        <v>2411.8000000000002</v>
+        <v>2098.86</v>
       </c>
       <c r="C308">
-        <v>11939999744</v>
+        <v>14890000384</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>42916</v>
+        <v>42580</v>
       </c>
       <c r="B309">
-        <v>2423.41</v>
+        <v>2173.6</v>
       </c>
       <c r="C309">
-        <v>14259999744</v>
+        <v>11649999872</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>42947</v>
+        <v>42613</v>
       </c>
       <c r="B310">
-        <v>2470.3000000000002</v>
+        <v>2170.9499999999998</v>
       </c>
       <c r="C310">
-        <v>10339999744</v>
+        <v>11630000128</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>42978</v>
+        <v>42643</v>
       </c>
       <c r="B311">
-        <v>2471.65</v>
+        <v>2168.27</v>
       </c>
       <c r="C311">
-        <v>11020000256</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43007</v>
+        <v>42674</v>
       </c>
       <c r="B312">
-        <v>2519.36</v>
+        <v>2126.15</v>
       </c>
       <c r="C312">
-        <v>11020000256</v>
+        <v>11820000256</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43039</v>
+        <v>42704</v>
       </c>
       <c r="B313">
-        <v>2575.2600000000002</v>
+        <v>2198.81</v>
       </c>
       <c r="C313">
-        <v>11050000384</v>
+        <v>14060000256</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43069</v>
+        <v>42734</v>
       </c>
       <c r="B314">
-        <v>2647.58</v>
+        <v>2238.83</v>
       </c>
       <c r="C314">
-        <v>11299999744</v>
+        <v>12320000000</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43098</v>
+        <v>42766</v>
       </c>
       <c r="B315">
-        <v>2673.61</v>
+        <v>2278.87</v>
       </c>
       <c r="C315">
-        <v>11379999744</v>
+        <v>11440000000</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43131</v>
+        <v>42794</v>
       </c>
       <c r="B316">
-        <v>2823.81</v>
+        <v>2363.64</v>
       </c>
       <c r="C316">
-        <v>12330000384</v>
+        <v>10739999744</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43159</v>
+        <v>42825</v>
       </c>
       <c r="B317">
-        <v>2713.83</v>
+        <v>2362.7199999999998</v>
       </c>
       <c r="C317">
-        <v>13360000000</v>
+        <v>13290000384</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>43189</v>
+        <v>42853</v>
       </c>
       <c r="B318">
-        <v>2640.87</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="C318">
-        <v>14140000256</v>
+        <v>10090000384</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>43220</v>
+        <v>42886</v>
       </c>
       <c r="B319">
-        <v>2648.05</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="C319">
-        <v>12049999872</v>
+        <v>11939999744</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>43251</v>
+        <v>42916</v>
       </c>
       <c r="B320">
-        <v>2705.27</v>
+        <v>2423.41</v>
       </c>
       <c r="C320">
-        <v>12120000512</v>
+        <v>14259999744</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>43280</v>
+        <v>42947</v>
       </c>
       <c r="B321">
-        <v>2718.37</v>
+        <v>2470.3000000000002</v>
       </c>
       <c r="C321">
-        <v>13740000256</v>
+        <v>10339999744</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>43312</v>
+        <v>42978</v>
       </c>
       <c r="B322">
-        <v>2816.29</v>
+        <v>2471.65</v>
       </c>
       <c r="C322">
-        <v>10739999744</v>
+        <v>11020000256</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43343</v>
+        <v>43007</v>
       </c>
       <c r="B323">
-        <v>2901.52</v>
+        <v>2519.36</v>
       </c>
       <c r="C323">
-        <v>10680000512</v>
+        <v>11020000256</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43371</v>
+        <v>43039</v>
       </c>
       <c r="B324">
-        <v>2913.98</v>
+        <v>2575.2600000000002</v>
       </c>
       <c r="C324">
-        <v>11550000128</v>
+        <v>11050000384</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43404</v>
+        <v>43069</v>
       </c>
       <c r="B325">
-        <v>2711.74</v>
+        <v>2647.58</v>
       </c>
       <c r="C325">
-        <v>15440000000</v>
+        <v>11299999744</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43434</v>
+        <v>43098</v>
       </c>
       <c r="B326">
-        <v>2760.17</v>
+        <v>2673.61</v>
       </c>
       <c r="C326">
-        <v>13690000384</v>
+        <v>11379999744</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="B327">
-        <v>2506.85</v>
+        <v>2823.81</v>
       </c>
       <c r="C327">
-        <v>15640000512</v>
+        <v>12330000384</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43496</v>
+        <v>43159</v>
       </c>
       <c r="B328">
-        <v>2704.1</v>
+        <v>2713.83</v>
       </c>
       <c r="C328">
-        <v>13870000128</v>
+        <v>13360000000</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43524</v>
+        <v>43189</v>
       </c>
       <c r="B329">
-        <v>2784.49</v>
+        <v>2640.87</v>
       </c>
       <c r="C329">
-        <v>10919999488</v>
+        <v>14140000256</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43553</v>
+        <v>43220</v>
       </c>
       <c r="B330">
-        <v>2834.4</v>
+        <v>2648.05</v>
       </c>
       <c r="C330">
-        <v>13459999744</v>
+        <v>12049999872</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43585</v>
+        <v>43251</v>
       </c>
       <c r="B331">
-        <v>2945.83</v>
+        <v>2705.27</v>
       </c>
       <c r="C331">
-        <v>10650000384</v>
+        <v>12120000512</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43616</v>
+        <v>43280</v>
       </c>
       <c r="B332">
-        <v>2752.06</v>
+        <v>2718.37</v>
       </c>
       <c r="C332">
-        <v>11930000384</v>
+        <v>13740000256</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43644</v>
+        <v>43312</v>
       </c>
       <c r="B333">
-        <v>2941.76</v>
+        <v>2816.29</v>
       </c>
       <c r="C333">
-        <v>11829999616</v>
+        <v>10739999744</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43677</v>
+        <v>43343</v>
       </c>
       <c r="B334">
-        <v>2980.38</v>
+        <v>2901.52</v>
       </c>
       <c r="C334">
-        <v>10240000000</v>
+        <v>10680000512</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43707</v>
+        <v>43371</v>
       </c>
       <c r="B335">
-        <v>2926.46</v>
+        <v>2913.98</v>
       </c>
       <c r="C335">
-        <v>12129999872</v>
+        <v>11550000128</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43738</v>
+        <v>43404</v>
       </c>
       <c r="B336">
-        <v>2976.74</v>
+        <v>2711.74</v>
       </c>
       <c r="C336">
-        <v>11180000256</v>
+        <v>15440000000</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B337">
-        <v>3037.56</v>
+        <v>2760.17</v>
       </c>
       <c r="C337">
-        <v>11150000128</v>
+        <v>13690000384</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43798</v>
+        <v>43465</v>
       </c>
       <c r="B338">
-        <v>3140.98</v>
+        <v>2506.85</v>
       </c>
       <c r="C338">
-        <v>10330000384</v>
+        <v>15640000512</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43830</v>
+        <v>43496</v>
       </c>
       <c r="B339">
-        <v>3230.78</v>
+        <v>2704.1</v>
       </c>
       <c r="C339">
-        <v>11249999872</v>
+        <v>13870000128</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43861</v>
+        <v>43524</v>
       </c>
       <c r="B340">
-        <v>3225.52</v>
+        <v>2784.49</v>
       </c>
       <c r="C340">
-        <v>11800000512</v>
+        <v>10919999488</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43889</v>
+        <v>43553</v>
       </c>
       <c r="B341">
-        <v>2954.22</v>
+        <v>2834.4</v>
       </c>
       <c r="C341">
-        <v>12899999744</v>
+        <v>13459999744</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43921</v>
+        <v>43585</v>
       </c>
       <c r="B342">
-        <v>2584.59</v>
+        <v>2945.83</v>
       </c>
       <c r="C342">
-        <v>26030000128</v>
+        <v>10650000384</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43951</v>
+        <v>43616</v>
       </c>
       <c r="B343">
-        <v>2912.43</v>
+        <v>2752.06</v>
       </c>
       <c r="C343">
-        <v>17100000256</v>
+        <v>11930000384</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43980</v>
+        <v>43644</v>
       </c>
       <c r="B344">
-        <v>3044.31</v>
+        <v>2941.76</v>
       </c>
       <c r="C344">
-        <v>14190000128</v>
+        <v>11829999616</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>44012</v>
+        <v>43677</v>
       </c>
       <c r="B345">
-        <v>3100.29</v>
+        <v>2980.38</v>
       </c>
       <c r="C345">
-        <v>18649999360</v>
+        <v>10240000000</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>44043</v>
+        <v>43707</v>
       </c>
       <c r="B346">
-        <v>3271.12</v>
+        <v>2926.46</v>
       </c>
       <c r="C346">
-        <v>13240000512</v>
+        <v>12129999872</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>44074</v>
+        <v>43738</v>
       </c>
       <c r="B347">
-        <v>3500.31</v>
+        <v>2976.74</v>
       </c>
       <c r="C347">
-        <v>11269999616</v>
+        <v>11180000256</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>44104</v>
+        <v>43769</v>
       </c>
       <c r="B348">
-        <v>3363</v>
+        <v>3037.56</v>
       </c>
       <c r="C348">
-        <v>15440000000</v>
+        <v>11150000128</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>44134</v>
+        <v>43798</v>
       </c>
       <c r="B349">
-        <v>3269.96</v>
+        <v>3140.98</v>
       </c>
       <c r="C349">
-        <v>12760000512</v>
+        <v>10330000384</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>44165</v>
+        <v>43830</v>
       </c>
       <c r="B350">
-        <v>3621.63</v>
+        <v>3230.78</v>
       </c>
       <c r="C350">
-        <v>13589999616</v>
+        <v>11249999872</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>44196</v>
+        <v>43861</v>
       </c>
       <c r="B351">
-        <v>3756.07</v>
+        <v>3225.52</v>
       </c>
       <c r="C351">
-        <v>13969999872</v>
+        <v>11800000512</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>44225</v>
+        <v>43889</v>
       </c>
       <c r="B352">
-        <v>3714.24</v>
+        <v>2954.22</v>
       </c>
       <c r="C352">
-        <v>13630000128</v>
+        <v>12899999744</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>44253</v>
+        <v>43921</v>
       </c>
       <c r="B353">
-        <v>3811.15</v>
+        <v>2584.59</v>
       </c>
       <c r="C353">
-        <v>11850000384</v>
+        <v>26030000128</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>44286</v>
+        <v>43951</v>
       </c>
       <c r="B354">
-        <v>3972.89</v>
+        <v>2912.43</v>
       </c>
       <c r="C354">
-        <v>17159999488</v>
+        <v>17100000256</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>44316</v>
+        <v>43980</v>
       </c>
       <c r="B355">
-        <v>4181.17</v>
+        <v>3044.31</v>
       </c>
       <c r="C355">
-        <v>11790000128</v>
+        <v>14190000128</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>44347</v>
+        <v>44012</v>
       </c>
       <c r="B356">
-        <v>4204.1099999999997</v>
+        <v>3100.29</v>
       </c>
       <c r="C356">
-        <v>12419999744</v>
+        <v>18649999360</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>44377</v>
+        <v>44043</v>
       </c>
       <c r="B357">
-        <v>4297.5</v>
+        <v>3271.12</v>
       </c>
       <c r="C357">
-        <v>13230000128</v>
+        <v>13240000512</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>44407</v>
+        <v>44074</v>
       </c>
       <c r="B358">
-        <v>4395.26</v>
+        <v>3500.31</v>
       </c>
       <c r="C358">
-        <v>11299999744</v>
+        <v>11269999616</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>44439</v>
+        <v>44104</v>
       </c>
       <c r="B359">
-        <v>4522.68</v>
+        <v>3363</v>
       </c>
       <c r="C359">
-        <v>10650000384</v>
+        <v>15440000000</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>44469</v>
+        <v>44134</v>
       </c>
       <c r="B360">
-        <v>4307.54</v>
+        <v>3269.96</v>
       </c>
       <c r="C360">
-        <v>12430000128</v>
+        <v>12760000512</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>44498</v>
+        <v>44165</v>
       </c>
       <c r="B361">
-        <v>4605.38</v>
+        <v>3621.63</v>
       </c>
       <c r="C361">
-        <v>11180000256</v>
+        <v>13589999616</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>44530</v>
+        <v>44196</v>
       </c>
       <c r="B362">
-        <v>4567</v>
+        <v>3756.07</v>
       </c>
       <c r="C362">
-        <v>12519999488</v>
+        <v>13969999872</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>44561</v>
+        <v>44225</v>
       </c>
       <c r="B363">
-        <v>4766.18</v>
+        <v>3714.24</v>
       </c>
       <c r="C363">
-        <v>14279999488</v>
+        <v>13630000128</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>44592</v>
+        <v>44253</v>
       </c>
       <c r="B364">
-        <v>4515.55</v>
+        <v>3811.15</v>
       </c>
       <c r="C364">
-        <v>14499999744</v>
+        <v>11850000384</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>44620</v>
+        <v>44286</v>
       </c>
       <c r="B365">
-        <v>4373.9399999999996</v>
+        <v>3972.89</v>
       </c>
       <c r="C365">
-        <v>13459999744</v>
+        <v>17159999488</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>44651</v>
+        <v>44316</v>
       </c>
       <c r="B366">
-        <v>4530.41</v>
+        <v>4181.17</v>
       </c>
       <c r="C366">
-        <v>17429999616</v>
+        <v>11790000128</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>44680</v>
+        <v>44347</v>
       </c>
       <c r="B367">
-        <v>4131.93</v>
+        <v>4204.1099999999997</v>
       </c>
       <c r="C367">
-        <v>12990000128</v>
+        <v>12419999744</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>44712</v>
+        <v>44377</v>
       </c>
       <c r="B368">
-        <v>4132.1499999999996</v>
+        <v>4297.5</v>
       </c>
       <c r="C368">
-        <v>15589999616</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>44742</v>
+        <v>44407</v>
       </c>
       <c r="B369">
-        <v>3785.38</v>
+        <v>4395.26</v>
       </c>
       <c r="C369">
-        <v>15870000128</v>
+        <v>11299999744</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>44771</v>
+        <v>44439</v>
       </c>
       <c r="B370">
-        <v>4130.29</v>
+        <v>4522.68</v>
       </c>
       <c r="C370">
-        <v>12440000512</v>
+        <v>10650000384</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>44804</v>
+        <v>44469</v>
       </c>
       <c r="B371">
-        <v>3955</v>
+        <v>4307.54</v>
       </c>
       <c r="C371">
-        <v>12720000000</v>
+        <v>12430000128</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>44834</v>
+        <v>44498</v>
       </c>
       <c r="B372">
-        <v>3585.62</v>
+        <v>4605.38</v>
       </c>
       <c r="C372">
-        <v>15539999744</v>
+        <v>11180000256</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>44865</v>
+        <v>44530</v>
       </c>
       <c r="B373">
-        <v>3871.98</v>
+        <v>4567</v>
       </c>
       <c r="C373">
-        <v>15280000000</v>
+        <v>12519999488</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>44895</v>
+        <v>44561</v>
       </c>
       <c r="B374">
-        <v>4080.11</v>
+        <v>4766.18</v>
       </c>
       <c r="C374">
-        <v>14129999872</v>
+        <v>14279999488</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>44925</v>
+        <v>44592</v>
       </c>
       <c r="B375">
-        <v>3839.5</v>
+        <v>4515.55</v>
       </c>
       <c r="C375">
         <v>14499999744</v>
       </c>
     </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B376">
+        <v>4373.9399999999996</v>
+      </c>
+      <c r="C376">
+        <v>13459999744</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B377">
+        <v>4530.41</v>
+      </c>
+      <c r="C377">
+        <v>17429999616</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B378">
+        <v>4131.93</v>
+      </c>
+      <c r="C378">
+        <v>12990000128</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B379">
+        <v>4132.1499999999996</v>
+      </c>
+      <c r="C379">
+        <v>15589999616</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B380">
+        <v>3785.38</v>
+      </c>
+      <c r="C380">
+        <v>15870000128</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B381">
+        <v>4130.29</v>
+      </c>
+      <c r="C381">
+        <v>12440000512</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B382">
+        <v>3955</v>
+      </c>
+      <c r="C382">
+        <v>12720000000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B383">
+        <v>3585.62</v>
+      </c>
+      <c r="C383">
+        <v>15539999744</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B384">
+        <v>3871.98</v>
+      </c>
+      <c r="C384">
+        <v>15280000000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B385">
+        <v>4080.11</v>
+      </c>
+      <c r="C385">
+        <v>14129999872</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B386">
+        <v>3839.5</v>
+      </c>
+      <c r="C386">
+        <v>14499999744</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C377">
-    <sortCondition ref="A1:A377"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C388">
+    <sortCondition ref="A1:A388"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SPX_Monthly.xlsx
+++ b/SPX_Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wumail-my.sharepoint.com/personal/boodusami_widener_edu/Documents/Financial Data Science/Data/Bookdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{C6F33D2F-BE49-49AF-A568-0D81B45B8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{275C075F-E495-4A46-BF16-D505D2C7850F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C6F33D2F-BE49-49AF-A568-0D81B45B8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD840F6-7984-4A99-B2D8-BC2E03B38B6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAA922A5-DBDD-40C1-86C6-B5E7F41E8E19}"/>
   </bookViews>
@@ -98,10 +98,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F4C3C-22B3-4E91-82A6-75D5C10E0487}">
-  <dimension ref="A1:C386"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,428 +423,428 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>33238</v>
+        <v>33571</v>
       </c>
       <c r="B2">
-        <v>330.22</v>
+        <v>375.22</v>
       </c>
       <c r="C2">
-        <v>2380000000</v>
+        <v>2600000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>33269</v>
+        <v>33603</v>
       </c>
       <c r="B3">
-        <v>343.93</v>
+        <v>417.09</v>
       </c>
       <c r="C3">
-        <v>3049999872</v>
+        <v>2969999872</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>33297</v>
+        <v>33634</v>
       </c>
       <c r="B4">
-        <v>367.07</v>
+        <v>408.79</v>
       </c>
       <c r="C4">
-        <v>3270000128</v>
+        <v>3840000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>33326</v>
+        <v>33662</v>
       </c>
       <c r="B5">
-        <v>375.22</v>
+        <v>412.7</v>
       </c>
       <c r="C5">
-        <v>2870000128</v>
+        <v>3009999872</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>33358</v>
+        <v>33694</v>
       </c>
       <c r="B6">
-        <v>375.35</v>
+        <v>403.69</v>
       </c>
       <c r="C6">
-        <v>2969999872</v>
+        <v>2880000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>33389</v>
+        <v>33724</v>
       </c>
       <c r="B7">
-        <v>389.83</v>
+        <v>414.95</v>
       </c>
       <c r="C7">
-        <v>2780000000</v>
+        <v>3209999872</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>33417</v>
+        <v>33753</v>
       </c>
       <c r="B8">
-        <v>371.16</v>
+        <v>415.35</v>
       </c>
       <c r="C8">
-        <v>2440000000</v>
+        <v>2560000000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>33450</v>
+        <v>33785</v>
       </c>
       <c r="B9">
-        <v>387.81</v>
+        <v>408.14</v>
       </c>
       <c r="C9">
-        <v>2520000000</v>
+        <v>3070000128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>33480</v>
+        <v>33816</v>
       </c>
       <c r="B10">
-        <v>395.43</v>
+        <v>424.21</v>
       </c>
       <c r="C10">
-        <v>2780000000</v>
+        <v>2990000128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>33511</v>
+        <v>33847</v>
       </c>
       <c r="B11">
-        <v>387.86</v>
+        <v>414.03</v>
       </c>
       <c r="C11">
-        <v>2400000000</v>
+        <v>2560000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>33542</v>
+        <v>33877</v>
       </c>
       <c r="B12">
-        <v>392.46</v>
+        <v>417.8</v>
       </c>
       <c r="C12">
-        <v>2929999872</v>
+        <v>2910000128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>33571</v>
+        <v>33907</v>
       </c>
       <c r="B13">
-        <v>375.22</v>
+        <v>418.68</v>
       </c>
       <c r="C13">
-        <v>2600000000</v>
+        <v>3240000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>33603</v>
+        <v>33938</v>
       </c>
       <c r="B14">
-        <v>417.09</v>
+        <v>431.35</v>
       </c>
       <c r="C14">
-        <v>2969999872</v>
+        <v>2889999872</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>33634</v>
+        <v>33969</v>
       </c>
       <c r="B15">
-        <v>408.79</v>
+        <v>435.71</v>
       </c>
       <c r="C15">
-        <v>3840000000</v>
+        <v>3329999872</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>33662</v>
+        <v>33998</v>
       </c>
       <c r="B16">
-        <v>412.7</v>
+        <v>438.78</v>
       </c>
       <c r="C16">
-        <v>3009999872</v>
+        <v>3750000128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>33694</v>
+        <v>34026</v>
       </c>
       <c r="B17">
-        <v>403.69</v>
+        <v>443.38</v>
       </c>
       <c r="C17">
-        <v>2880000000</v>
+        <v>3590000128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>33724</v>
+        <v>34059</v>
       </c>
       <c r="B18">
-        <v>414.95</v>
+        <v>451.67</v>
       </c>
       <c r="C18">
-        <v>3209999872</v>
+        <v>3940000000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>33753</v>
+        <v>34089</v>
       </c>
       <c r="B19">
-        <v>415.35</v>
+        <v>440.19</v>
       </c>
       <c r="C19">
-        <v>2560000000</v>
+        <v>4129999872</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>33785</v>
+        <v>34120</v>
       </c>
       <c r="B20">
-        <v>408.14</v>
+        <v>450.19</v>
       </c>
       <c r="C20">
-        <v>3070000128</v>
+        <v>3500000000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>33816</v>
+        <v>34150</v>
       </c>
       <c r="B21">
-        <v>424.21</v>
+        <v>450.53</v>
       </c>
       <c r="C21">
-        <v>2990000128</v>
+        <v>3689999872</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>33847</v>
+        <v>34180</v>
       </c>
       <c r="B22">
-        <v>414.03</v>
+        <v>448.13</v>
       </c>
       <c r="C22">
-        <v>2560000000</v>
+        <v>3550000128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>33877</v>
+        <v>34212</v>
       </c>
       <c r="B23">
-        <v>417.8</v>
+        <v>463.56</v>
       </c>
       <c r="C23">
-        <v>2910000128</v>
+        <v>3780000000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>33907</v>
+        <v>34242</v>
       </c>
       <c r="B24">
-        <v>418.68</v>
+        <v>458.93</v>
       </c>
       <c r="C24">
-        <v>3240000000</v>
+        <v>3760000000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>33938</v>
+        <v>34271</v>
       </c>
       <c r="B25">
-        <v>431.35</v>
+        <v>467.83</v>
       </c>
       <c r="C25">
-        <v>2889999872</v>
+        <v>4089999872</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>33969</v>
+        <v>34303</v>
       </c>
       <c r="B26">
-        <v>435.71</v>
+        <v>461.79</v>
       </c>
       <c r="C26">
-        <v>3329999872</v>
+        <v>3860000000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>33998</v>
+        <v>34334</v>
       </c>
       <c r="B27">
-        <v>438.78</v>
+        <v>466.45</v>
       </c>
       <c r="C27">
-        <v>3750000128</v>
+        <v>3710000128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>34026</v>
+        <v>34365</v>
       </c>
       <c r="B28">
-        <v>443.38</v>
+        <v>481.61</v>
       </c>
       <c r="C28">
-        <v>3590000128</v>
+        <v>4499999744</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>34059</v>
+        <v>34393</v>
       </c>
       <c r="B29">
-        <v>451.67</v>
+        <v>467.14</v>
       </c>
       <c r="C29">
-        <v>3940000000</v>
+        <v>3980000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>34089</v>
+        <v>34424</v>
       </c>
       <c r="B30">
-        <v>440.19</v>
+        <v>445.77</v>
       </c>
       <c r="C30">
-        <v>4129999872</v>
+        <v>4950000128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>34120</v>
+        <v>34453</v>
       </c>
       <c r="B31">
-        <v>450.19</v>
+        <v>450.91</v>
       </c>
       <c r="C31">
-        <v>3500000000</v>
+        <v>4190000128</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>34150</v>
+        <v>34485</v>
       </c>
       <c r="B32">
-        <v>450.53</v>
+        <v>456.5</v>
       </c>
       <c r="C32">
-        <v>3689999872</v>
+        <v>4040000000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>34180</v>
+        <v>34515</v>
       </c>
       <c r="B33">
-        <v>448.13</v>
+        <v>444.27</v>
       </c>
       <c r="C33">
-        <v>3550000128</v>
+        <v>4100000000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>34212</v>
+        <v>34544</v>
       </c>
       <c r="B34">
-        <v>463.56</v>
+        <v>458.26</v>
       </c>
       <c r="C34">
-        <v>3780000000</v>
+        <v>3550000128</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34242</v>
+        <v>34577</v>
       </c>
       <c r="B35">
-        <v>458.93</v>
+        <v>475.49</v>
       </c>
       <c r="C35">
-        <v>3760000000</v>
+        <v>4550000128</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34271</v>
+        <v>34607</v>
       </c>
       <c r="B36">
-        <v>467.83</v>
+        <v>462.69</v>
       </c>
       <c r="C36">
-        <v>4089999872</v>
+        <v>4310000128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>34303</v>
+        <v>34638</v>
       </c>
       <c r="B37">
-        <v>461.79</v>
+        <v>472.35</v>
       </c>
       <c r="C37">
-        <v>3860000000</v>
+        <v>4630000128</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>34334</v>
+        <v>34668</v>
       </c>
       <c r="B38">
-        <v>466.45</v>
+        <v>453.69</v>
       </c>
       <c r="C38">
-        <v>3710000128</v>
+        <v>4510000128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>34365</v>
+        <v>34698</v>
       </c>
       <c r="B39">
-        <v>481.61</v>
+        <v>459.27</v>
       </c>
       <c r="C39">
-        <v>4499999744</v>
+        <v>4269999872</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>34393</v>
+        <v>34730</v>
       </c>
       <c r="B40">
-        <v>467.14</v>
+        <v>470.42</v>
       </c>
       <c r="C40">
         <v>3980000000</v>
@@ -856,2683 +852,2683 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>34424</v>
+        <v>34758</v>
       </c>
       <c r="B41">
-        <v>445.77</v>
+        <v>487.39</v>
       </c>
       <c r="C41">
-        <v>4950000128</v>
+        <v>3790000128</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>34453</v>
+        <v>34789</v>
       </c>
       <c r="B42">
-        <v>450.91</v>
+        <v>500.71</v>
       </c>
       <c r="C42">
-        <v>4190000128</v>
+        <v>5409999872</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>34485</v>
+        <v>34817</v>
       </c>
       <c r="B43">
-        <v>456.5</v>
+        <v>514.71</v>
       </c>
       <c r="C43">
-        <v>4040000000</v>
+        <v>4720000000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>34515</v>
+        <v>34850</v>
       </c>
       <c r="B44">
-        <v>444.27</v>
+        <v>533.4</v>
       </c>
       <c r="C44">
-        <v>4100000000</v>
+        <v>5649999872</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>34544</v>
+        <v>34880</v>
       </c>
       <c r="B45">
-        <v>458.26</v>
+        <v>544.75</v>
       </c>
       <c r="C45">
-        <v>3550000128</v>
+        <v>5459999744</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>34577</v>
+        <v>34911</v>
       </c>
       <c r="B46">
-        <v>475.49</v>
+        <v>562.05999999999995</v>
       </c>
       <c r="C46">
-        <v>4550000128</v>
+        <v>5409999872</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>34607</v>
+        <v>34942</v>
       </c>
       <c r="B47">
-        <v>462.69</v>
+        <v>561.88</v>
       </c>
       <c r="C47">
-        <v>4310000128</v>
+        <v>5350000128</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>34638</v>
+        <v>34971</v>
       </c>
       <c r="B48">
-        <v>472.35</v>
+        <v>584.41</v>
       </c>
       <c r="C48">
-        <v>4630000128</v>
+        <v>5320000000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>34668</v>
+        <v>35003</v>
       </c>
       <c r="B49">
-        <v>453.69</v>
+        <v>581.5</v>
       </c>
       <c r="C49">
-        <v>4510000128</v>
+        <v>6230000128</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>34698</v>
+        <v>35033</v>
       </c>
       <c r="B50">
-        <v>459.27</v>
+        <v>605.37</v>
       </c>
       <c r="C50">
-        <v>4269999872</v>
+        <v>5529999872</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>34730</v>
+        <v>35062</v>
       </c>
       <c r="B51">
-        <v>470.42</v>
+        <v>615.92999999999995</v>
       </c>
       <c r="C51">
-        <v>3980000000</v>
+        <v>5600000000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>34758</v>
+        <v>35095</v>
       </c>
       <c r="B52">
-        <v>487.39</v>
+        <v>636.02</v>
       </c>
       <c r="C52">
-        <v>3790000128</v>
+        <v>7430000128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>34789</v>
+        <v>35124</v>
       </c>
       <c r="B53">
-        <v>500.71</v>
+        <v>640.42999999999995</v>
       </c>
       <c r="C53">
-        <v>5409999872</v>
+        <v>6680000000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>34817</v>
+        <v>35153</v>
       </c>
       <c r="B54">
-        <v>514.71</v>
+        <v>645.5</v>
       </c>
       <c r="C54">
-        <v>4720000000</v>
+        <v>6929999872</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>34850</v>
+        <v>35185</v>
       </c>
       <c r="B55">
-        <v>533.4</v>
+        <v>654.16999999999996</v>
       </c>
       <c r="C55">
-        <v>5649999872</v>
+        <v>6640000000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>34880</v>
+        <v>35216</v>
       </c>
       <c r="B56">
-        <v>544.75</v>
+        <v>669.12</v>
       </c>
       <c r="C56">
-        <v>5459999744</v>
+        <v>6380000256</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>34911</v>
+        <v>35244</v>
       </c>
       <c r="B57">
-        <v>562.05999999999995</v>
+        <v>670.63</v>
       </c>
       <c r="C57">
-        <v>5409999872</v>
+        <v>5640000000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>34942</v>
+        <v>35277</v>
       </c>
       <c r="B58">
-        <v>561.88</v>
+        <v>639.95000000000005</v>
       </c>
       <c r="C58">
-        <v>5350000128</v>
+        <v>6830000128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>34971</v>
+        <v>35307</v>
       </c>
       <c r="B59">
-        <v>584.41</v>
+        <v>651.99</v>
       </c>
       <c r="C59">
-        <v>5320000000</v>
+        <v>5420000256</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>35003</v>
+        <v>35338</v>
       </c>
       <c r="B60">
-        <v>581.5</v>
+        <v>687.31</v>
       </c>
       <c r="C60">
-        <v>6230000128</v>
+        <v>5980000256</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>35033</v>
+        <v>35369</v>
       </c>
       <c r="B61">
-        <v>605.37</v>
+        <v>705.27</v>
       </c>
       <c r="C61">
-        <v>5529999872</v>
+        <v>7209999872</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>35062</v>
+        <v>35398</v>
       </c>
       <c r="B62">
-        <v>615.92999999999995</v>
+        <v>757.02</v>
       </c>
       <c r="C62">
-        <v>5600000000</v>
+        <v>6710000128</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>35095</v>
+        <v>35430</v>
       </c>
       <c r="B63">
-        <v>636.02</v>
+        <v>740.74</v>
       </c>
       <c r="C63">
-        <v>7430000128</v>
+        <v>6860000256</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>35124</v>
+        <v>35461</v>
       </c>
       <c r="B64">
-        <v>640.42999999999995</v>
+        <v>786.16</v>
       </c>
       <c r="C64">
-        <v>6680000000</v>
+        <v>8999999488</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>35153</v>
+        <v>35489</v>
       </c>
       <c r="B65">
-        <v>645.5</v>
+        <v>790.82</v>
       </c>
       <c r="C65">
-        <v>6929999872</v>
+        <v>7699999744</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>35185</v>
+        <v>35520</v>
       </c>
       <c r="B66">
-        <v>654.16999999999996</v>
+        <v>757.12</v>
       </c>
       <c r="C66">
-        <v>6640000000</v>
+        <v>8160000000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>35216</v>
+        <v>35550</v>
       </c>
       <c r="B67">
-        <v>669.12</v>
+        <v>801.34</v>
       </c>
       <c r="C67">
-        <v>6380000256</v>
+        <v>8520000000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>35244</v>
+        <v>35580</v>
       </c>
       <c r="B68">
-        <v>670.63</v>
+        <v>848.28</v>
       </c>
       <c r="C68">
-        <v>5640000000</v>
+        <v>8230000128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>35277</v>
+        <v>35611</v>
       </c>
       <c r="B69">
-        <v>639.95000000000005</v>
+        <v>885.14</v>
       </c>
       <c r="C69">
-        <v>6830000128</v>
+        <v>8430000128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>35307</v>
+        <v>35642</v>
       </c>
       <c r="B70">
-        <v>651.99</v>
+        <v>954.29</v>
       </c>
       <c r="C70">
-        <v>5420000256</v>
+        <v>9600000000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>35338</v>
+        <v>35671</v>
       </c>
       <c r="B71">
-        <v>687.31</v>
+        <v>899.47</v>
       </c>
       <c r="C71">
-        <v>5980000256</v>
+        <v>8979999744</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>35369</v>
+        <v>35703</v>
       </c>
       <c r="B72">
-        <v>705.27</v>
+        <v>947.28</v>
       </c>
       <c r="C72">
-        <v>7209999872</v>
+        <v>9040000000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>35398</v>
+        <v>35734</v>
       </c>
       <c r="B73">
-        <v>757.02</v>
+        <v>914.62</v>
       </c>
       <c r="C73">
-        <v>6710000128</v>
+        <v>11909999616</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>35430</v>
+        <v>35762</v>
       </c>
       <c r="B74">
-        <v>740.74</v>
+        <v>955.4</v>
       </c>
       <c r="C74">
-        <v>6860000256</v>
+        <v>8390000128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>35461</v>
+        <v>35795</v>
       </c>
       <c r="B75">
-        <v>786.16</v>
+        <v>970.43</v>
       </c>
       <c r="C75">
-        <v>8999999488</v>
+        <v>9880000512</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>35489</v>
+        <v>35825</v>
       </c>
       <c r="B76">
-        <v>790.82</v>
+        <v>980.28</v>
       </c>
       <c r="C76">
-        <v>7699999744</v>
+        <v>10449999872</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>35520</v>
+        <v>35853</v>
       </c>
       <c r="B77">
-        <v>757.12</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="C77">
-        <v>8160000000</v>
+        <v>9420000256</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>35550</v>
+        <v>35885</v>
       </c>
       <c r="B78">
-        <v>801.34</v>
+        <v>1101.75</v>
       </c>
       <c r="C78">
-        <v>8520000000</v>
+        <v>11160000512</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>35580</v>
+        <v>35915</v>
       </c>
       <c r="B79">
-        <v>848.28</v>
+        <v>1111.75</v>
       </c>
       <c r="C79">
-        <v>8230000128</v>
+        <v>10780000256</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>35611</v>
+        <v>35944</v>
       </c>
       <c r="B80">
-        <v>885.14</v>
+        <v>1090.82</v>
       </c>
       <c r="C80">
-        <v>8430000128</v>
+        <v>9180000256</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>35642</v>
+        <v>35976</v>
       </c>
       <c r="B81">
-        <v>954.29</v>
+        <v>1133.8399999999999</v>
       </c>
       <c r="C81">
-        <v>9600000000</v>
+        <v>11230000128</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>35671</v>
+        <v>36007</v>
       </c>
       <c r="B82">
-        <v>899.47</v>
+        <v>1120.67</v>
       </c>
       <c r="C82">
-        <v>8979999744</v>
+        <v>12209999872</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>35703</v>
+        <v>36038</v>
       </c>
       <c r="B83">
-        <v>947.28</v>
+        <v>957.28</v>
       </c>
       <c r="C83">
-        <v>9040000000</v>
+        <v>13189999616</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>35734</v>
+        <v>36068</v>
       </c>
       <c r="B84">
-        <v>914.62</v>
+        <v>1017.01</v>
       </c>
       <c r="C84">
-        <v>11909999616</v>
+        <v>14680000512</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>35762</v>
+        <v>36098</v>
       </c>
       <c r="B85">
-        <v>955.4</v>
+        <v>1098.67</v>
       </c>
       <c r="C85">
-        <v>8390000128</v>
+        <v>16780000256</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>35795</v>
+        <v>36129</v>
       </c>
       <c r="B86">
-        <v>970.43</v>
+        <v>1163.6300000000001</v>
       </c>
       <c r="C86">
-        <v>9880000512</v>
+        <v>11640000512</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>35825</v>
+        <v>36160</v>
       </c>
       <c r="B87">
-        <v>980.28</v>
+        <v>1229.23</v>
       </c>
       <c r="C87">
-        <v>10449999872</v>
+        <v>12540000256</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>35853</v>
+        <v>36189</v>
       </c>
       <c r="B88">
-        <v>1049.3399999999999</v>
+        <v>1279.6400000000001</v>
       </c>
       <c r="C88">
-        <v>9420000256</v>
+        <v>14609999872</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>35885</v>
+        <v>36217</v>
       </c>
       <c r="B89">
-        <v>1101.75</v>
+        <v>1238.33</v>
       </c>
       <c r="C89">
-        <v>11160000512</v>
+        <v>13440000000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>35915</v>
+        <v>36250</v>
       </c>
       <c r="B90">
-        <v>1111.75</v>
+        <v>1286.3699999999999</v>
       </c>
       <c r="C90">
-        <v>10780000256</v>
+        <v>16309999616</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>35944</v>
+        <v>36280</v>
       </c>
       <c r="B91">
-        <v>1090.82</v>
+        <v>1335.18</v>
       </c>
       <c r="C91">
-        <v>9180000256</v>
+        <v>16910000128</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>35976</v>
+        <v>36311</v>
       </c>
       <c r="B92">
-        <v>1133.8399999999999</v>
+        <v>1301.8399999999999</v>
       </c>
       <c r="C92">
-        <v>11230000128</v>
+        <v>14469999616</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>36007</v>
+        <v>36341</v>
       </c>
       <c r="B93">
-        <v>1120.67</v>
+        <v>1372.71</v>
       </c>
       <c r="C93">
-        <v>12209999872</v>
+        <v>14510000128</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>36038</v>
+        <v>36371</v>
       </c>
       <c r="B94">
-        <v>957.28</v>
+        <v>1328.72</v>
       </c>
       <c r="C94">
-        <v>13189999616</v>
+        <v>13779999744</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>36068</v>
+        <v>36403</v>
       </c>
       <c r="B95">
-        <v>1017.01</v>
+        <v>1320.41</v>
       </c>
       <c r="C95">
-        <v>14680000512</v>
+        <v>14899999744</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>36098</v>
+        <v>36433</v>
       </c>
       <c r="B96">
-        <v>1098.67</v>
+        <v>1282.71</v>
       </c>
       <c r="C96">
-        <v>16780000256</v>
+        <v>15749999616</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>36129</v>
+        <v>36462</v>
       </c>
       <c r="B97">
-        <v>1163.6300000000001</v>
+        <v>1362.93</v>
       </c>
       <c r="C97">
-        <v>11640000512</v>
+        <v>17840001024</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>36160</v>
+        <v>36494</v>
       </c>
       <c r="B98">
-        <v>1229.23</v>
+        <v>1388.91</v>
       </c>
       <c r="C98">
-        <v>12540000256</v>
+        <v>17200001024</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>36189</v>
+        <v>36525</v>
       </c>
       <c r="B99">
-        <v>1279.6400000000001</v>
+        <v>1469.25</v>
       </c>
       <c r="C99">
-        <v>14609999872</v>
+        <v>18499999744</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>36217</v>
+        <v>36556</v>
       </c>
       <c r="B100">
-        <v>1238.33</v>
+        <v>1394.46</v>
       </c>
       <c r="C100">
-        <v>13440000000</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>36250</v>
+        <v>36585</v>
       </c>
       <c r="B101">
-        <v>1286.3699999999999</v>
+        <v>1366.42</v>
       </c>
       <c r="C101">
-        <v>16309999616</v>
+        <v>20860000256</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>36280</v>
+        <v>36616</v>
       </c>
       <c r="B102">
-        <v>1335.18</v>
+        <v>1498.58</v>
       </c>
       <c r="C102">
-        <v>16910000128</v>
+        <v>27050000384</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>36311</v>
+        <v>36644</v>
       </c>
       <c r="B103">
-        <v>1301.8399999999999</v>
+        <v>1452.43</v>
       </c>
       <c r="C103">
-        <v>14469999616</v>
+        <v>22869999616</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>36341</v>
+        <v>36677</v>
       </c>
       <c r="B104">
-        <v>1372.71</v>
+        <v>1420.6</v>
       </c>
       <c r="C104">
-        <v>14510000128</v>
+        <v>22109999104</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>36371</v>
+        <v>36707</v>
       </c>
       <c r="B105">
-        <v>1328.72</v>
+        <v>1454.6</v>
       </c>
       <c r="C105">
-        <v>13779999744</v>
+        <v>22549999616</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>36403</v>
+        <v>36738</v>
       </c>
       <c r="B106">
-        <v>1320.41</v>
+        <v>1430.83</v>
       </c>
       <c r="C106">
-        <v>14899999744</v>
+        <v>20660000768</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>36433</v>
+        <v>36769</v>
       </c>
       <c r="B107">
-        <v>1282.71</v>
+        <v>1517.68</v>
       </c>
       <c r="C107">
-        <v>15749999616</v>
+        <v>22470000640</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>36462</v>
+        <v>36798</v>
       </c>
       <c r="B108">
-        <v>1362.93</v>
+        <v>1436.51</v>
       </c>
       <c r="C108">
-        <v>17840001024</v>
+        <v>25109999616</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>36494</v>
+        <v>36830</v>
       </c>
       <c r="B109">
-        <v>1388.91</v>
+        <v>1429.4</v>
       </c>
       <c r="C109">
-        <v>17200001024</v>
+        <v>33219999744</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>36525</v>
+        <v>36860</v>
       </c>
       <c r="B110">
-        <v>1469.25</v>
+        <v>1314.95</v>
       </c>
       <c r="C110">
-        <v>18499999744</v>
+        <v>28490000384</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>36556</v>
+        <v>36889</v>
       </c>
       <c r="B111">
-        <v>1394.46</v>
+        <v>1320.28</v>
       </c>
       <c r="C111">
-        <v>22439999488</v>
+        <v>31979999232</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>36585</v>
+        <v>36922</v>
       </c>
       <c r="B112">
-        <v>1366.42</v>
+        <v>1366.01</v>
       </c>
       <c r="C112">
-        <v>20860000256</v>
+        <v>37219999744</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>36616</v>
+        <v>36950</v>
       </c>
       <c r="B113">
-        <v>1498.58</v>
+        <v>1239.94</v>
       </c>
       <c r="C113">
-        <v>27050000384</v>
+        <v>29909999616</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>36644</v>
+        <v>36980</v>
       </c>
       <c r="B114">
-        <v>1452.43</v>
+        <v>1160.33</v>
       </c>
       <c r="C114">
-        <v>22869999616</v>
+        <v>38919999488</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>36677</v>
+        <v>37011</v>
       </c>
       <c r="B115">
-        <v>1420.6</v>
+        <v>1249.46</v>
       </c>
       <c r="C115">
-        <v>22109999104</v>
+        <v>35000000512</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>36707</v>
+        <v>37042</v>
       </c>
       <c r="B116">
-        <v>1454.6</v>
+        <v>1255.82</v>
       </c>
       <c r="C116">
-        <v>22549999616</v>
+        <v>31150000128</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>36738</v>
+        <v>37071</v>
       </c>
       <c r="B117">
-        <v>1430.83</v>
+        <v>1224.42</v>
       </c>
       <c r="C117">
-        <v>20660000768</v>
+        <v>29930000384</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>36769</v>
+        <v>37103</v>
       </c>
       <c r="B118">
-        <v>1517.68</v>
+        <v>1211.23</v>
       </c>
       <c r="C118">
-        <v>22470000640</v>
+        <v>28989999104</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>36798</v>
+        <v>37134</v>
       </c>
       <c r="B119">
-        <v>1436.51</v>
+        <v>1133.58</v>
       </c>
       <c r="C119">
-        <v>25109999616</v>
+        <v>28120000512</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>36830</v>
+        <v>37162</v>
       </c>
       <c r="B120">
-        <v>1429.4</v>
+        <v>1040.94</v>
       </c>
       <c r="C120">
-        <v>33219999744</v>
+        <v>30640001024</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>36860</v>
+        <v>37195</v>
       </c>
       <c r="B121">
-        <v>1314.95</v>
+        <v>1059.78</v>
       </c>
       <c r="C121">
-        <v>28490000384</v>
+        <v>39139999744</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>36889</v>
+        <v>37225</v>
       </c>
       <c r="B122">
-        <v>1320.28</v>
+        <v>1139.45</v>
       </c>
       <c r="C122">
-        <v>31979999232</v>
+        <v>33849999360</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>36922</v>
+        <v>37256</v>
       </c>
       <c r="B123">
-        <v>1366.01</v>
+        <v>1148.08</v>
       </c>
       <c r="C123">
-        <v>37219999744</v>
+        <v>30489999360</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>36950</v>
+        <v>37287</v>
       </c>
       <c r="B124">
-        <v>1239.94</v>
+        <v>1130.21</v>
       </c>
       <c r="C124">
-        <v>29909999616</v>
+        <v>36209999872</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>36980</v>
+        <v>37315</v>
       </c>
       <c r="B125">
-        <v>1160.33</v>
+        <v>1106.73</v>
       </c>
       <c r="C125">
-        <v>38919999488</v>
+        <v>33639999488</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>37011</v>
+        <v>37344</v>
       </c>
       <c r="B126">
-        <v>1249.46</v>
+        <v>1147.3900000000001</v>
       </c>
       <c r="C126">
-        <v>35000000512</v>
+        <v>33369999360</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>37042</v>
+        <v>37376</v>
       </c>
       <c r="B127">
-        <v>1255.82</v>
+        <v>1076.92</v>
       </c>
       <c r="C127">
-        <v>31150000128</v>
+        <v>36879998976</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>37071</v>
+        <v>37407</v>
       </c>
       <c r="B128">
-        <v>1224.42</v>
+        <v>1067.1400000000001</v>
       </c>
       <c r="C128">
-        <v>29930000384</v>
+        <v>36200001536</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>37103</v>
+        <v>37435</v>
       </c>
       <c r="B129">
-        <v>1211.23</v>
+        <v>989.81</v>
       </c>
       <c r="C129">
-        <v>28989999104</v>
+        <v>37319999488</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>37134</v>
+        <v>37468</v>
       </c>
       <c r="B130">
-        <v>1133.58</v>
+        <v>911.62</v>
       </c>
       <c r="C130">
-        <v>28120000512</v>
+        <v>46840000512</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>37162</v>
+        <v>37498</v>
       </c>
       <c r="B131">
-        <v>1040.94</v>
+        <v>916.07</v>
       </c>
       <c r="C131">
-        <v>30640001024</v>
+        <v>33419999232</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>37195</v>
+        <v>37529</v>
       </c>
       <c r="B132">
-        <v>1059.78</v>
+        <v>815.28</v>
       </c>
       <c r="C132">
-        <v>39139999744</v>
+        <v>32070000640</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>37225</v>
+        <v>37560</v>
       </c>
       <c r="B133">
-        <v>1139.45</v>
+        <v>885.76</v>
       </c>
       <c r="C133">
-        <v>33849999360</v>
+        <v>43520000000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>37256</v>
+        <v>37589</v>
       </c>
       <c r="B134">
-        <v>1148.08</v>
+        <v>936.31</v>
       </c>
       <c r="C134">
-        <v>30489999360</v>
+        <v>33720000512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>37287</v>
+        <v>37621</v>
       </c>
       <c r="B135">
-        <v>1130.21</v>
+        <v>879.82</v>
       </c>
       <c r="C135">
-        <v>36209999872</v>
+        <v>27929999360</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>37315</v>
+        <v>37652</v>
       </c>
       <c r="B136">
-        <v>1106.73</v>
+        <v>855.7</v>
       </c>
       <c r="C136">
-        <v>33639999488</v>
+        <v>33130000384</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>37344</v>
+        <v>37680</v>
       </c>
       <c r="B137">
-        <v>1147.3900000000001</v>
+        <v>841.15</v>
       </c>
       <c r="C137">
-        <v>33369999360</v>
+        <v>26219999232</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>37376</v>
+        <v>37711</v>
       </c>
       <c r="B138">
-        <v>1076.92</v>
+        <v>848.18</v>
       </c>
       <c r="C138">
-        <v>36879998976</v>
+        <v>31609999360</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>37407</v>
+        <v>37741</v>
       </c>
       <c r="B139">
-        <v>1067.1400000000001</v>
+        <v>916.92</v>
       </c>
       <c r="C139">
-        <v>36200001536</v>
+        <v>28779999232</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>37435</v>
+        <v>37771</v>
       </c>
       <c r="B140">
-        <v>989.81</v>
+        <v>963.59</v>
       </c>
       <c r="C140">
-        <v>37319999488</v>
+        <v>29250000896</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>37468</v>
+        <v>37802</v>
       </c>
       <c r="B141">
-        <v>911.62</v>
+        <v>974.5</v>
       </c>
       <c r="C141">
-        <v>46840000512</v>
+        <v>29489999872</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>37498</v>
+        <v>37833</v>
       </c>
       <c r="B142">
-        <v>916.07</v>
+        <v>990.31</v>
       </c>
       <c r="C142">
-        <v>33419999232</v>
+        <v>28089999360</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>37529</v>
+        <v>37862</v>
       </c>
       <c r="B143">
-        <v>815.28</v>
+        <v>1008.01</v>
       </c>
       <c r="C143">
-        <v>32070000640</v>
+        <v>21890000896</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>37560</v>
+        <v>37894</v>
       </c>
       <c r="B144">
-        <v>885.76</v>
+        <v>995.97</v>
       </c>
       <c r="C144">
-        <v>43520000000</v>
+        <v>26030000128</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>37589</v>
+        <v>37925</v>
       </c>
       <c r="B145">
-        <v>936.31</v>
+        <v>1050.71</v>
       </c>
       <c r="C145">
-        <v>33720000512</v>
+        <v>27950000128</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>37621</v>
+        <v>37953</v>
       </c>
       <c r="B146">
-        <v>879.82</v>
+        <v>1058.2</v>
       </c>
       <c r="C146">
-        <v>27929999360</v>
+        <v>20889999360</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>37652</v>
+        <v>37986</v>
       </c>
       <c r="B147">
-        <v>855.7</v>
+        <v>1111.92</v>
       </c>
       <c r="C147">
-        <v>33130000384</v>
+        <v>22809999360</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>37680</v>
+        <v>38016</v>
       </c>
       <c r="B148">
-        <v>841.15</v>
+        <v>1131.1300000000001</v>
       </c>
       <c r="C148">
-        <v>26219999232</v>
+        <v>27320000512</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>37711</v>
+        <v>38044</v>
       </c>
       <c r="B149">
-        <v>848.18</v>
+        <v>1144.94</v>
       </c>
       <c r="C149">
-        <v>31609999360</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>37741</v>
+        <v>38077</v>
       </c>
       <c r="B150">
-        <v>916.92</v>
+        <v>1126.21</v>
       </c>
       <c r="C150">
-        <v>28779999232</v>
+        <v>26260000768</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>37771</v>
+        <v>38107</v>
       </c>
       <c r="B151">
-        <v>963.59</v>
+        <v>1107.31</v>
       </c>
       <c r="C151">
-        <v>29250000896</v>
+        <v>24180000768</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>37802</v>
+        <v>38138</v>
       </c>
       <c r="B152">
-        <v>974.5</v>
+        <v>1120.68</v>
       </c>
       <c r="C152">
-        <v>29489999872</v>
+        <v>22439999488</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>37833</v>
+        <v>38168</v>
       </c>
       <c r="B153">
-        <v>990.31</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="C153">
-        <v>28089999360</v>
+        <v>21510000640</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>37862</v>
+        <v>38198</v>
       </c>
       <c r="B154">
-        <v>1008.01</v>
+        <v>1101.72</v>
       </c>
       <c r="C154">
-        <v>21890000896</v>
+        <v>23470000128</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>37894</v>
+        <v>38230</v>
       </c>
       <c r="B155">
-        <v>995.97</v>
+        <v>1104.24</v>
       </c>
       <c r="C155">
-        <v>26030000128</v>
+        <v>20490000384</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>37925</v>
+        <v>38260</v>
       </c>
       <c r="B156">
-        <v>1050.71</v>
+        <v>1114.58</v>
       </c>
       <c r="C156">
-        <v>27950000128</v>
+        <v>23260000256</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>37953</v>
+        <v>38289</v>
       </c>
       <c r="B157">
-        <v>1058.2</v>
+        <v>1130.2</v>
       </c>
       <c r="C157">
-        <v>20889999360</v>
+        <v>26470000640</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>37986</v>
+        <v>38321</v>
       </c>
       <c r="B158">
-        <v>1111.92</v>
+        <v>1173.82</v>
       </c>
       <c r="C158">
-        <v>22809999360</v>
+        <v>25479999488</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>38016</v>
+        <v>38352</v>
       </c>
       <c r="B159">
-        <v>1131.1300000000001</v>
+        <v>1211.92</v>
       </c>
       <c r="C159">
-        <v>27320000512</v>
+        <v>27000000512</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>38044</v>
+        <v>38383</v>
       </c>
       <c r="B160">
-        <v>1144.94</v>
+        <v>1181.27</v>
       </c>
       <c r="C160">
-        <v>22439999488</v>
+        <v>27399999488</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>38077</v>
+        <v>38411</v>
       </c>
       <c r="B161">
-        <v>1126.21</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="C161">
-        <v>26260000768</v>
+        <v>24619999232</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>38107</v>
+        <v>38442</v>
       </c>
       <c r="B162">
-        <v>1107.31</v>
+        <v>1180.5899999999999</v>
       </c>
       <c r="C162">
-        <v>24180000768</v>
+        <v>29369999360</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>38138</v>
+        <v>38471</v>
       </c>
       <c r="B163">
-        <v>1120.68</v>
+        <v>1156.8499999999999</v>
       </c>
       <c r="C163">
-        <v>22439999488</v>
+        <v>29379999744</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>38168</v>
+        <v>38503</v>
       </c>
       <c r="B164">
-        <v>1140.8399999999999</v>
+        <v>1191.5</v>
       </c>
       <c r="C164">
-        <v>21510000640</v>
+        <v>25589999616</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>38198</v>
+        <v>38533</v>
       </c>
       <c r="B165">
-        <v>1101.72</v>
+        <v>1191.33</v>
       </c>
       <c r="C165">
-        <v>23470000128</v>
+        <v>25849999360</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>38230</v>
+        <v>38562</v>
       </c>
       <c r="B166">
-        <v>1104.24</v>
+        <v>1234.18</v>
       </c>
       <c r="C166">
-        <v>20490000384</v>
+        <v>23860000768</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>38260</v>
+        <v>38595</v>
       </c>
       <c r="B167">
-        <v>1114.58</v>
+        <v>1220.33</v>
       </c>
       <c r="C167">
-        <v>23260000256</v>
+        <v>25240000512</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>38289</v>
+        <v>38625</v>
       </c>
       <c r="B168">
-        <v>1130.2</v>
+        <v>1228.81</v>
       </c>
       <c r="C168">
-        <v>26470000640</v>
+        <v>27229999104</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>38321</v>
+        <v>38656</v>
       </c>
       <c r="B169">
-        <v>1173.82</v>
+        <v>1207.01</v>
       </c>
       <c r="C169">
-        <v>25479999488</v>
+        <v>29760000000</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>38352</v>
+        <v>38686</v>
       </c>
       <c r="B170">
-        <v>1211.92</v>
+        <v>1249.48</v>
       </c>
       <c r="C170">
-        <v>27000000512</v>
+        <v>27239999488</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>38383</v>
+        <v>38716</v>
       </c>
       <c r="B171">
-        <v>1181.27</v>
+        <v>1248.29</v>
       </c>
       <c r="C171">
-        <v>27399999488</v>
+        <v>24779999232</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>38411</v>
+        <v>38748</v>
       </c>
       <c r="B172">
-        <v>1203.5999999999999</v>
+        <v>1280.0899999999999</v>
       </c>
       <c r="C172">
-        <v>24619999232</v>
+        <v>31349999616</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>38442</v>
+        <v>38776</v>
       </c>
       <c r="B173">
-        <v>1180.5899999999999</v>
+        <v>1280.6600000000001</v>
       </c>
       <c r="C173">
-        <v>29369999360</v>
+        <v>28939999232</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>38471</v>
+        <v>38807</v>
       </c>
       <c r="B174">
-        <v>1156.8499999999999</v>
+        <v>1294.83</v>
       </c>
       <c r="C174">
-        <v>29379999744</v>
+        <v>35150000128</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>38503</v>
+        <v>38835</v>
       </c>
       <c r="B175">
-        <v>1191.5</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="C175">
-        <v>25589999616</v>
+        <v>29639999488</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>38533</v>
+        <v>38868</v>
       </c>
       <c r="B176">
-        <v>1191.33</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="C176">
-        <v>25849999360</v>
+        <v>35899998208</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>38562</v>
+        <v>38898</v>
       </c>
       <c r="B177">
-        <v>1234.18</v>
+        <v>1270.2</v>
       </c>
       <c r="C177">
-        <v>23860000768</v>
+        <v>34530000896</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>38595</v>
+        <v>38929</v>
       </c>
       <c r="B178">
-        <v>1220.33</v>
+        <v>1276.6600000000001</v>
       </c>
       <c r="C178">
-        <v>25240000512</v>
+        <v>30050000896</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>38625</v>
+        <v>38960</v>
       </c>
       <c r="B179">
-        <v>1228.81</v>
+        <v>1303.82</v>
       </c>
       <c r="C179">
-        <v>27229999104</v>
+        <v>26659999744</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>38656</v>
+        <v>38989</v>
       </c>
       <c r="B180">
-        <v>1207.01</v>
+        <v>1335.85</v>
       </c>
       <c r="C180">
-        <v>29760000000</v>
+        <v>25890000896</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>38686</v>
+        <v>39021</v>
       </c>
       <c r="B181">
-        <v>1249.48</v>
+        <v>1377.94</v>
       </c>
       <c r="C181">
-        <v>27239999488</v>
+        <v>28970000384</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>38716</v>
+        <v>39051</v>
       </c>
       <c r="B182">
-        <v>1248.29</v>
+        <v>1400.63</v>
       </c>
       <c r="C182">
-        <v>24779999232</v>
+        <v>25760000000</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>38748</v>
+        <v>39080</v>
       </c>
       <c r="B183">
-        <v>1280.0899999999999</v>
+        <v>1418.3</v>
       </c>
       <c r="C183">
-        <v>31349999616</v>
+        <v>22210000896</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>38776</v>
+        <v>39113</v>
       </c>
       <c r="B184">
-        <v>1280.6600000000001</v>
+        <v>1438.24</v>
       </c>
       <c r="C184">
-        <v>28939999232</v>
+        <v>27040000000</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>38807</v>
+        <v>39141</v>
       </c>
       <c r="B185">
-        <v>1294.83</v>
+        <v>1406.82</v>
       </c>
       <c r="C185">
-        <v>35150000128</v>
+        <v>23320000512</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>38835</v>
+        <v>39171</v>
       </c>
       <c r="B186">
-        <v>1310.6099999999999</v>
+        <v>1420.86</v>
       </c>
       <c r="C186">
-        <v>29639999488</v>
+        <v>29739999232</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>38868</v>
+        <v>39202</v>
       </c>
       <c r="B187">
-        <v>1270.0899999999999</v>
+        <v>1482.37</v>
       </c>
       <c r="C187">
-        <v>35899998208</v>
+        <v>25739999232</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>38898</v>
+        <v>39233</v>
       </c>
       <c r="B188">
-        <v>1270.2</v>
+        <v>1530.62</v>
       </c>
       <c r="C188">
-        <v>34530000896</v>
+        <v>27640000512</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>38929</v>
+        <v>39262</v>
       </c>
       <c r="B189">
-        <v>1276.6600000000001</v>
+        <v>1503.35</v>
       </c>
       <c r="C189">
-        <v>30050000896</v>
+        <v>28060000256</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>38960</v>
+        <v>39294</v>
       </c>
       <c r="B190">
-        <v>1303.82</v>
+        <v>1455.28</v>
       </c>
       <c r="C190">
-        <v>26659999744</v>
+        <v>29340000256</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>38989</v>
+        <v>39325</v>
       </c>
       <c r="B191">
-        <v>1335.85</v>
+        <v>1473.99</v>
       </c>
       <c r="C191">
-        <v>25890000896</v>
+        <v>34850000896</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>39021</v>
+        <v>39353</v>
       </c>
       <c r="B192">
-        <v>1377.94</v>
+        <v>1526.75</v>
       </c>
       <c r="C192">
-        <v>28970000384</v>
+        <v>22279999488</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>39051</v>
+        <v>39386</v>
       </c>
       <c r="B193">
-        <v>1400.63</v>
+        <v>1549.38</v>
       </c>
       <c r="C193">
-        <v>25760000000</v>
+        <v>25940000768</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>39080</v>
+        <v>39416</v>
       </c>
       <c r="B194">
-        <v>1418.3</v>
+        <v>1481.14</v>
       </c>
       <c r="C194">
-        <v>22210000896</v>
+        <v>29600000000</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>39113</v>
+        <v>39447</v>
       </c>
       <c r="B195">
-        <v>1438.24</v>
+        <v>1468.36</v>
       </c>
       <c r="C195">
-        <v>27040000000</v>
+        <v>21730000896</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>39141</v>
+        <v>39478</v>
       </c>
       <c r="B196">
-        <v>1406.82</v>
+        <v>1378.55</v>
       </c>
       <c r="C196">
-        <v>23320000512</v>
+        <v>36200001536</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>39171</v>
+        <v>39507</v>
       </c>
       <c r="B197">
-        <v>1420.86</v>
+        <v>1330.63</v>
       </c>
       <c r="C197">
-        <v>29739999232</v>
+        <v>27499999232</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>39202</v>
+        <v>39538</v>
       </c>
       <c r="B198">
-        <v>1482.37</v>
+        <v>1322.7</v>
       </c>
       <c r="C198">
-        <v>25739999232</v>
+        <v>29649999872</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>39233</v>
+        <v>39568</v>
       </c>
       <c r="B199">
-        <v>1530.62</v>
+        <v>1385.59</v>
       </c>
       <c r="C199">
-        <v>27640000512</v>
+        <v>24629999616</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>39262</v>
+        <v>39598</v>
       </c>
       <c r="B200">
-        <v>1503.35</v>
+        <v>1400.38</v>
       </c>
       <c r="C200">
-        <v>28060000256</v>
+        <v>22549999616</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>39294</v>
+        <v>39629</v>
       </c>
       <c r="B201">
-        <v>1455.28</v>
+        <v>1280</v>
       </c>
       <c r="C201">
-        <v>29340000256</v>
+        <v>25560000512</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>39325</v>
+        <v>39660</v>
       </c>
       <c r="B202">
-        <v>1473.99</v>
+        <v>1267.3800000000001</v>
       </c>
       <c r="C202">
-        <v>34850000896</v>
+        <v>29269999616</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>39353</v>
+        <v>39689</v>
       </c>
       <c r="B203">
-        <v>1526.75</v>
+        <v>1282.83</v>
       </c>
       <c r="C203">
-        <v>22279999488</v>
+        <v>19000000512</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>39386</v>
+        <v>39721</v>
       </c>
       <c r="B204">
-        <v>1549.38</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="C204">
-        <v>25940000768</v>
+        <v>31430000640</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>39416</v>
+        <v>39752</v>
       </c>
       <c r="B205">
-        <v>1481.14</v>
+        <v>968.75</v>
       </c>
       <c r="C205">
-        <v>29600000000</v>
+        <v>36180000768</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>39447</v>
+        <v>39780</v>
       </c>
       <c r="B206">
-        <v>1468.36</v>
+        <v>896.24</v>
       </c>
       <c r="C206">
-        <v>21730000896</v>
+        <v>25969999872</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>39478</v>
+        <v>39813</v>
       </c>
       <c r="B207">
-        <v>1378.55</v>
+        <v>903.25</v>
       </c>
       <c r="C207">
-        <v>36200001536</v>
+        <v>24519999488</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>39507</v>
+        <v>39843</v>
       </c>
       <c r="B208">
-        <v>1330.63</v>
+        <v>825.88</v>
       </c>
       <c r="C208">
-        <v>27499999232</v>
+        <v>24920000512</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>39538</v>
+        <v>39871</v>
       </c>
       <c r="B209">
-        <v>1322.7</v>
+        <v>735.09</v>
       </c>
       <c r="C209">
-        <v>29649999872</v>
+        <v>27050000384</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>39568</v>
+        <v>39903</v>
       </c>
       <c r="B210">
-        <v>1385.59</v>
+        <v>797.87</v>
       </c>
       <c r="C210">
-        <v>24629999616</v>
+        <v>35000000512</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>39598</v>
+        <v>39933</v>
       </c>
       <c r="B211">
-        <v>1400.38</v>
+        <v>872.81</v>
       </c>
       <c r="C211">
-        <v>22549999616</v>
+        <v>29040001024</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>39629</v>
+        <v>39962</v>
       </c>
       <c r="B212">
-        <v>1280</v>
+        <v>919.14</v>
       </c>
       <c r="C212">
-        <v>25560000512</v>
+        <v>25899999232</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>39660</v>
+        <v>39994</v>
       </c>
       <c r="B213">
-        <v>1267.3800000000001</v>
+        <v>919.32</v>
       </c>
       <c r="C213">
-        <v>29269999616</v>
+        <v>24170000384</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>39689</v>
+        <v>40025</v>
       </c>
       <c r="B214">
-        <v>1282.83</v>
+        <v>987.48</v>
       </c>
       <c r="C214">
-        <v>19000000512</v>
+        <v>23430000640</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>39721</v>
+        <v>40056</v>
       </c>
       <c r="B215">
-        <v>1166.3599999999999</v>
+        <v>1020.63</v>
       </c>
       <c r="C215">
-        <v>31430000640</v>
+        <v>21760000000</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>39752</v>
+        <v>40086</v>
       </c>
       <c r="B216">
-        <v>968.75</v>
+        <v>1057.08</v>
       </c>
       <c r="C216">
-        <v>36180000768</v>
+        <v>24629999616</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>39780</v>
+        <v>40116</v>
       </c>
       <c r="B217">
-        <v>896.24</v>
+        <v>1036.2</v>
       </c>
       <c r="C217">
-        <v>25969999872</v>
+        <v>24619999232</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>39813</v>
+        <v>40147</v>
       </c>
       <c r="B218">
-        <v>903.25</v>
+        <v>1095.6300000000001</v>
       </c>
       <c r="C218">
-        <v>24519999488</v>
+        <v>18690000896</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>39843</v>
+        <v>40178</v>
       </c>
       <c r="B219">
-        <v>825.88</v>
+        <v>1115.0999999999999</v>
       </c>
       <c r="C219">
-        <v>24920000512</v>
+        <v>20519999488</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>39871</v>
+        <v>40207</v>
       </c>
       <c r="B220">
-        <v>735.09</v>
+        <v>1073.8699999999999</v>
       </c>
       <c r="C220">
-        <v>27050000384</v>
+        <v>20049999872</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>39903</v>
+        <v>40235</v>
       </c>
       <c r="B221">
-        <v>797.87</v>
+        <v>1104.49</v>
       </c>
       <c r="C221">
-        <v>35000000512</v>
+        <v>19249999872</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>39933</v>
+        <v>40268</v>
       </c>
       <c r="B222">
-        <v>872.81</v>
+        <v>1169.43</v>
       </c>
       <c r="C222">
-        <v>29040001024</v>
+        <v>21109999616</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>39962</v>
+        <v>40298</v>
       </c>
       <c r="B223">
-        <v>919.14</v>
+        <v>1186.69</v>
       </c>
       <c r="C223">
-        <v>25899999232</v>
+        <v>21689999360</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>39994</v>
+        <v>40329</v>
       </c>
       <c r="B224">
-        <v>919.32</v>
+        <v>1089.4100000000001</v>
       </c>
       <c r="C224">
-        <v>24170000384</v>
+        <v>27530000384</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>40025</v>
+        <v>40359</v>
       </c>
       <c r="B225">
-        <v>987.48</v>
+        <v>1030.71</v>
       </c>
       <c r="C225">
-        <v>23430000640</v>
+        <v>24340000768</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>40056</v>
+        <v>40389</v>
       </c>
       <c r="B226">
-        <v>1020.63</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="C226">
-        <v>21760000000</v>
+        <v>20579999744</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>40086</v>
+        <v>40421</v>
       </c>
       <c r="B227">
-        <v>1057.08</v>
+        <v>1049.33</v>
       </c>
       <c r="C227">
-        <v>24629999616</v>
+        <v>18830000128</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>40116</v>
+        <v>40451</v>
       </c>
       <c r="B228">
-        <v>1036.2</v>
+        <v>1141.2</v>
       </c>
       <c r="C228">
-        <v>24619999232</v>
+        <v>18080000000</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>40147</v>
+        <v>40480</v>
       </c>
       <c r="B229">
-        <v>1095.6300000000001</v>
+        <v>1183.26</v>
       </c>
       <c r="C229">
-        <v>18690000896</v>
+        <v>18360000512</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>40178</v>
+        <v>40512</v>
       </c>
       <c r="B230">
-        <v>1115.0999999999999</v>
+        <v>1180.55</v>
       </c>
       <c r="C230">
-        <v>20519999488</v>
+        <v>17570000896</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>40207</v>
+        <v>40543</v>
       </c>
       <c r="B231">
-        <v>1073.8699999999999</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="C231">
-        <v>20049999872</v>
+        <v>16110000128</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>40235</v>
+        <v>40574</v>
       </c>
       <c r="B232">
-        <v>1104.49</v>
+        <v>1286.1199999999999</v>
       </c>
       <c r="C232">
-        <v>19249999872</v>
+        <v>17269999616</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>40268</v>
+        <v>40602</v>
       </c>
       <c r="B233">
-        <v>1169.43</v>
+        <v>1327.22</v>
       </c>
       <c r="C233">
-        <v>21109999616</v>
+        <v>15600000000</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>40298</v>
+        <v>40633</v>
       </c>
       <c r="B234">
-        <v>1186.69</v>
+        <v>1325.83</v>
       </c>
       <c r="C234">
-        <v>21689999360</v>
+        <v>19029999616</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>40329</v>
+        <v>40662</v>
       </c>
       <c r="B235">
-        <v>1089.4100000000001</v>
+        <v>1363.61</v>
       </c>
       <c r="C235">
-        <v>27530000384</v>
+        <v>14880000000</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>40359</v>
+        <v>40694</v>
       </c>
       <c r="B236">
-        <v>1030.71</v>
+        <v>1345.2</v>
       </c>
       <c r="C236">
-        <v>24340000768</v>
+        <v>16060000256</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>40389</v>
+        <v>40724</v>
       </c>
       <c r="B237">
-        <v>1101.5999999999999</v>
+        <v>1320.64</v>
       </c>
       <c r="C237">
-        <v>20579999744</v>
+        <v>17390000128</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>40421</v>
+        <v>40753</v>
       </c>
       <c r="B238">
-        <v>1049.33</v>
+        <v>1292.28</v>
       </c>
       <c r="C238">
-        <v>18830000128</v>
+        <v>14439999488</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>40451</v>
+        <v>40786</v>
       </c>
       <c r="B239">
-        <v>1141.2</v>
+        <v>1218.8900000000001</v>
       </c>
       <c r="C239">
-        <v>18080000000</v>
+        <v>26659999744</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>40480</v>
+        <v>40816</v>
       </c>
       <c r="B240">
-        <v>1183.26</v>
+        <v>1131.42</v>
       </c>
       <c r="C240">
-        <v>18360000512</v>
+        <v>19640000512</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>40512</v>
+        <v>40847</v>
       </c>
       <c r="B241">
-        <v>1180.55</v>
+        <v>1253.3</v>
       </c>
       <c r="C241">
-        <v>17570000896</v>
+        <v>18160001024</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>40543</v>
+        <v>40877</v>
       </c>
       <c r="B242">
-        <v>1257.6400000000001</v>
+        <v>1246.96</v>
       </c>
       <c r="C242">
-        <v>16110000128</v>
+        <v>15459999744</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>40574</v>
+        <v>40907</v>
       </c>
       <c r="B243">
-        <v>1286.1199999999999</v>
+        <v>1257.6099999999999</v>
       </c>
       <c r="C243">
-        <v>17269999616</v>
+        <v>13569999872</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>40602</v>
+        <v>40939</v>
       </c>
       <c r="B244">
-        <v>1327.22</v>
+        <v>1312.41</v>
       </c>
       <c r="C244">
-        <v>15600000000</v>
+        <v>13319999488</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>40633</v>
+        <v>40968</v>
       </c>
       <c r="B245">
-        <v>1325.83</v>
+        <v>1365.68</v>
       </c>
       <c r="C245">
-        <v>19029999616</v>
+        <v>12480000000</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>40662</v>
+        <v>40998</v>
       </c>
       <c r="B246">
-        <v>1363.61</v>
+        <v>1408.47</v>
       </c>
       <c r="C246">
-        <v>14880000000</v>
+        <v>13920000000</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>40694</v>
+        <v>41029</v>
       </c>
       <c r="B247">
-        <v>1345.2</v>
+        <v>1397.91</v>
       </c>
       <c r="C247">
-        <v>16060000256</v>
+        <v>12529999872</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>40724</v>
+        <v>41060</v>
       </c>
       <c r="B248">
-        <v>1320.64</v>
+        <v>1310.33</v>
       </c>
       <c r="C248">
-        <v>17390000128</v>
+        <v>14490000384</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>40753</v>
+        <v>41089</v>
       </c>
       <c r="B249">
-        <v>1292.28</v>
+        <v>1362.16</v>
       </c>
       <c r="C249">
-        <v>14439999488</v>
+        <v>13959999488</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>40786</v>
+        <v>41121</v>
       </c>
       <c r="B250">
-        <v>1218.8900000000001</v>
+        <v>1379.32</v>
       </c>
       <c r="C250">
-        <v>26659999744</v>
+        <v>12359999488</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>40816</v>
+        <v>41152</v>
       </c>
       <c r="B251">
-        <v>1131.42</v>
+        <v>1406.58</v>
       </c>
       <c r="C251">
-        <v>19640000512</v>
+        <v>11340000256</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>40847</v>
+        <v>41180</v>
       </c>
       <c r="B252">
-        <v>1253.3</v>
+        <v>1440.67</v>
       </c>
       <c r="C252">
-        <v>18160001024</v>
+        <v>11420000256</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>40877</v>
+        <v>41213</v>
       </c>
       <c r="B253">
-        <v>1246.96</v>
+        <v>1412.16</v>
       </c>
       <c r="C253">
-        <v>15459999744</v>
+        <v>11509999616</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>40907</v>
+        <v>41243</v>
       </c>
       <c r="B254">
-        <v>1257.6099999999999</v>
+        <v>1416.18</v>
       </c>
       <c r="C254">
-        <v>13569999872</v>
+        <v>12120000512</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>40939</v>
+        <v>41274</v>
       </c>
       <c r="B255">
-        <v>1312.41</v>
+        <v>1426.19</v>
       </c>
       <c r="C255">
-        <v>13319999488</v>
+        <v>11379999744</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>40968</v>
+        <v>41305</v>
       </c>
       <c r="B256">
-        <v>1365.68</v>
+        <v>1498.11</v>
       </c>
       <c r="C256">
-        <v>12480000000</v>
+        <v>12019999744</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>40998</v>
+        <v>41333</v>
       </c>
       <c r="B257">
-        <v>1408.47</v>
+        <v>1514.68</v>
       </c>
       <c r="C257">
-        <v>13920000000</v>
+        <v>10849999872</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>41029</v>
+        <v>41362</v>
       </c>
       <c r="B258">
-        <v>1397.91</v>
+        <v>1569.19</v>
       </c>
       <c r="C258">
-        <v>12529999872</v>
+        <v>11009999872</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>41060</v>
+        <v>41394</v>
       </c>
       <c r="B259">
-        <v>1310.33</v>
+        <v>1597.57</v>
       </c>
       <c r="C259">
-        <v>14490000384</v>
+        <v>12460000256</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>41089</v>
+        <v>41425</v>
       </c>
       <c r="B260">
-        <v>1362.16</v>
+        <v>1630.74</v>
       </c>
       <c r="C260">
-        <v>13959999488</v>
+        <v>11980000256</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>41121</v>
+        <v>41453</v>
       </c>
       <c r="B261">
-        <v>1379.32</v>
+        <v>1606.28</v>
       </c>
       <c r="C261">
-        <v>12359999488</v>
+        <v>12689999872</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>41152</v>
+        <v>41486</v>
       </c>
       <c r="B262">
-        <v>1406.58</v>
+        <v>1685.73</v>
       </c>
       <c r="C262">
-        <v>11340000256</v>
+        <v>11559999488</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>41180</v>
+        <v>41516</v>
       </c>
       <c r="B263">
-        <v>1440.67</v>
+        <v>1632.97</v>
       </c>
       <c r="C263">
-        <v>11420000256</v>
+        <v>10060000256</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>41213</v>
+        <v>41547</v>
       </c>
       <c r="B264">
-        <v>1412.16</v>
+        <v>1681.55</v>
       </c>
       <c r="C264">
-        <v>11509999616</v>
+        <v>10680000512</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>41243</v>
+        <v>41578</v>
       </c>
       <c r="B265">
-        <v>1416.18</v>
+        <v>1756.54</v>
       </c>
       <c r="C265">
-        <v>12120000512</v>
+        <v>12110000128</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>41274</v>
+        <v>41607</v>
       </c>
       <c r="B266">
-        <v>1426.19</v>
+        <v>1805.81</v>
       </c>
       <c r="C266">
-        <v>11379999744</v>
+        <v>9909999616</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>41305</v>
+        <v>41639</v>
       </c>
       <c r="B267">
-        <v>1498.11</v>
+        <v>1848.36</v>
       </c>
       <c r="C267">
-        <v>12019999744</v>
+        <v>10789999616</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>41333</v>
+        <v>41670</v>
       </c>
       <c r="B268">
-        <v>1514.68</v>
+        <v>1782.59</v>
       </c>
       <c r="C268">
-        <v>10849999872</v>
+        <v>12090000384</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>41362</v>
+        <v>41698</v>
       </c>
       <c r="B269">
-        <v>1569.19</v>
+        <v>1859.45</v>
       </c>
       <c r="C269">
-        <v>11009999872</v>
+        <v>10979999744</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>41394</v>
+        <v>41729</v>
       </c>
       <c r="B270">
-        <v>1597.57</v>
+        <v>1872.34</v>
       </c>
       <c r="C270">
-        <v>12460000256</v>
+        <v>11760000000</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>41425</v>
+        <v>41759</v>
       </c>
       <c r="B271">
-        <v>1630.74</v>
+        <v>1883.95</v>
       </c>
       <c r="C271">
-        <v>11980000256</v>
+        <v>12140000256</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>41453</v>
+        <v>41789</v>
       </c>
       <c r="B272">
-        <v>1606.28</v>
+        <v>1923.57</v>
       </c>
       <c r="C272">
-        <v>12689999872</v>
+        <v>10010000384</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>41486</v>
+        <v>41820</v>
       </c>
       <c r="B273">
-        <v>1685.73</v>
+        <v>1960.23</v>
       </c>
       <c r="C273">
-        <v>11559999488</v>
+        <v>10430000128</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>41516</v>
+        <v>41851</v>
       </c>
       <c r="B274">
-        <v>1632.97</v>
+        <v>1930.67</v>
       </c>
       <c r="C274">
-        <v>10060000256</v>
+        <v>10480000000</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>41547</v>
+        <v>41880</v>
       </c>
       <c r="B275">
-        <v>1681.55</v>
+        <v>2003.37</v>
       </c>
       <c r="C275">
-        <v>10680000512</v>
+        <v>8869999616</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>41578</v>
+        <v>41912</v>
       </c>
       <c r="B276">
-        <v>1756.54</v>
+        <v>1972.29</v>
       </c>
       <c r="C276">
-        <v>12110000128</v>
+        <v>11459999744</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>41607</v>
+        <v>41943</v>
       </c>
       <c r="B277">
-        <v>1805.81</v>
+        <v>2018.05</v>
       </c>
       <c r="C277">
-        <v>9909999616</v>
+        <v>14529999872</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>41639</v>
+        <v>41971</v>
       </c>
       <c r="B278">
-        <v>1848.36</v>
+        <v>2067.56</v>
       </c>
       <c r="C278">
-        <v>10789999616</v>
+        <v>9660000256</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>41670</v>
+        <v>42004</v>
       </c>
       <c r="B279">
-        <v>1782.59</v>
+        <v>2058.9</v>
       </c>
       <c r="C279">
-        <v>12090000384</v>
+        <v>12620000256</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>41698</v>
+        <v>42034</v>
       </c>
       <c r="B280">
-        <v>1859.45</v>
+        <v>1994.99</v>
       </c>
       <c r="C280">
-        <v>10979999744</v>
+        <v>12419999744</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>41729</v>
+        <v>42062</v>
       </c>
       <c r="B281">
-        <v>1872.34</v>
+        <v>2104.5</v>
       </c>
       <c r="C281">
-        <v>11760000000</v>
+        <v>10529999872</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>41759</v>
+        <v>42094</v>
       </c>
       <c r="B282">
-        <v>1883.95</v>
+        <v>2067.89</v>
       </c>
       <c r="C282">
-        <v>12140000256</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>41789</v>
+        <v>42124</v>
       </c>
       <c r="B283">
-        <v>1923.57</v>
+        <v>2085.5100000000002</v>
       </c>
       <c r="C283">
-        <v>10010000384</v>
+        <v>11370000384</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>41820</v>
+        <v>42153</v>
       </c>
       <c r="B284">
-        <v>1960.23</v>
+        <v>2107.39</v>
       </c>
       <c r="C284">
         <v>10430000128</v>
@@ -3540,1129 +3536,1008 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>41851</v>
+        <v>42185</v>
       </c>
       <c r="B285">
-        <v>1930.67</v>
+        <v>2063.11</v>
       </c>
       <c r="C285">
-        <v>10480000000</v>
+        <v>12540000256</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>41880</v>
+        <v>42216</v>
       </c>
       <c r="B286">
-        <v>2003.37</v>
+        <v>2103.84</v>
       </c>
       <c r="C286">
-        <v>8869999616</v>
+        <v>12400000000</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>41912</v>
+        <v>42247</v>
       </c>
       <c r="B287">
-        <v>1972.29</v>
+        <v>1972.18</v>
       </c>
       <c r="C287">
-        <v>11459999744</v>
+        <v>14739999744</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>41943</v>
+        <v>42277</v>
       </c>
       <c r="B288">
-        <v>2018.05</v>
+        <v>1920.03</v>
       </c>
       <c r="C288">
-        <v>14529999872</v>
+        <v>15630000128</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>41971</v>
+        <v>42307</v>
       </c>
       <c r="B289">
-        <v>2067.56</v>
+        <v>2079.36</v>
       </c>
       <c r="C289">
-        <v>9660000256</v>
+        <v>14689999872</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>42004</v>
+        <v>42338</v>
       </c>
       <c r="B290">
-        <v>2058.9</v>
+        <v>2080.41</v>
       </c>
       <c r="C290">
-        <v>12620000256</v>
+        <v>12010000384</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>42034</v>
+        <v>42369</v>
       </c>
       <c r="B291">
-        <v>1994.99</v>
+        <v>2043.94</v>
       </c>
       <c r="C291">
-        <v>12419999744</v>
+        <v>14419999744</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>42062</v>
+        <v>42398</v>
       </c>
       <c r="B292">
-        <v>2104.5</v>
+        <v>1940.24</v>
       </c>
       <c r="C292">
-        <v>10529999872</v>
+        <v>16499999744</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>42094</v>
+        <v>42429</v>
       </c>
       <c r="B293">
-        <v>2067.89</v>
+        <v>1932.23</v>
       </c>
       <c r="C293">
-        <v>13230000128</v>
+        <v>16129999872</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>42124</v>
+        <v>42460</v>
       </c>
       <c r="B294">
-        <v>2085.5100000000002</v>
+        <v>2059.7399999999998</v>
       </c>
       <c r="C294">
-        <v>11370000384</v>
+        <v>14910000128</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>42153</v>
+        <v>42489</v>
       </c>
       <c r="B295">
-        <v>2107.39</v>
+        <v>2065.3000000000002</v>
       </c>
       <c r="C295">
-        <v>10430000128</v>
+        <v>13420000256</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>42185</v>
+        <v>42521</v>
       </c>
       <c r="B296">
-        <v>2063.11</v>
+        <v>2096.96</v>
       </c>
       <c r="C296">
-        <v>12540000256</v>
+        <v>12700000256</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>42216</v>
+        <v>42551</v>
       </c>
       <c r="B297">
-        <v>2103.84</v>
+        <v>2098.86</v>
       </c>
       <c r="C297">
-        <v>12400000000</v>
+        <v>14890000384</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>42247</v>
+        <v>42580</v>
       </c>
       <c r="B298">
-        <v>1972.18</v>
+        <v>2173.6</v>
       </c>
       <c r="C298">
-        <v>14739999744</v>
+        <v>11649999872</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>42277</v>
+        <v>42613</v>
       </c>
       <c r="B299">
-        <v>1920.03</v>
+        <v>2170.9499999999998</v>
       </c>
       <c r="C299">
-        <v>15630000128</v>
+        <v>11630000128</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>42307</v>
+        <v>42643</v>
       </c>
       <c r="B300">
-        <v>2079.36</v>
+        <v>2168.27</v>
       </c>
       <c r="C300">
-        <v>14689999872</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>42338</v>
+        <v>42674</v>
       </c>
       <c r="B301">
-        <v>2080.41</v>
+        <v>2126.15</v>
       </c>
       <c r="C301">
-        <v>12010000384</v>
+        <v>11820000256</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>42369</v>
+        <v>42704</v>
       </c>
       <c r="B302">
-        <v>2043.94</v>
+        <v>2198.81</v>
       </c>
       <c r="C302">
-        <v>14419999744</v>
+        <v>14060000256</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>42398</v>
+        <v>42734</v>
       </c>
       <c r="B303">
-        <v>1940.24</v>
+        <v>2238.83</v>
       </c>
       <c r="C303">
-        <v>16499999744</v>
+        <v>12320000000</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>42429</v>
+        <v>42766</v>
       </c>
       <c r="B304">
-        <v>1932.23</v>
+        <v>2278.87</v>
       </c>
       <c r="C304">
-        <v>16129999872</v>
+        <v>11440000000</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>42460</v>
+        <v>42794</v>
       </c>
       <c r="B305">
-        <v>2059.7399999999998</v>
+        <v>2363.64</v>
       </c>
       <c r="C305">
-        <v>14910000128</v>
+        <v>10739999744</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>42489</v>
+        <v>42825</v>
       </c>
       <c r="B306">
-        <v>2065.3000000000002</v>
+        <v>2362.7199999999998</v>
       </c>
       <c r="C306">
-        <v>13420000256</v>
+        <v>13290000384</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>42521</v>
+        <v>42853</v>
       </c>
       <c r="B307">
-        <v>2096.96</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="C307">
-        <v>12700000256</v>
+        <v>10090000384</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>42551</v>
+        <v>42886</v>
       </c>
       <c r="B308">
-        <v>2098.86</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="C308">
-        <v>14890000384</v>
+        <v>11939999744</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>42580</v>
+        <v>42916</v>
       </c>
       <c r="B309">
-        <v>2173.6</v>
+        <v>2423.41</v>
       </c>
       <c r="C309">
-        <v>11649999872</v>
+        <v>14259999744</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>42613</v>
+        <v>42947</v>
       </c>
       <c r="B310">
-        <v>2170.9499999999998</v>
+        <v>2470.3000000000002</v>
       </c>
       <c r="C310">
-        <v>11630000128</v>
+        <v>10339999744</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>42643</v>
+        <v>42978</v>
       </c>
       <c r="B311">
-        <v>2168.27</v>
+        <v>2471.65</v>
       </c>
       <c r="C311">
-        <v>13230000128</v>
+        <v>11020000256</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>42674</v>
+        <v>43007</v>
       </c>
       <c r="B312">
-        <v>2126.15</v>
+        <v>2519.36</v>
       </c>
       <c r="C312">
-        <v>11820000256</v>
+        <v>11020000256</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>42704</v>
+        <v>43039</v>
       </c>
       <c r="B313">
-        <v>2198.81</v>
+        <v>2575.2600000000002</v>
       </c>
       <c r="C313">
-        <v>14060000256</v>
+        <v>11050000384</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>42734</v>
+        <v>43069</v>
       </c>
       <c r="B314">
-        <v>2238.83</v>
+        <v>2647.58</v>
       </c>
       <c r="C314">
-        <v>12320000000</v>
+        <v>11299999744</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>42766</v>
+        <v>43098</v>
       </c>
       <c r="B315">
-        <v>2278.87</v>
+        <v>2673.61</v>
       </c>
       <c r="C315">
-        <v>11440000000</v>
+        <v>11379999744</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>42794</v>
+        <v>43131</v>
       </c>
       <c r="B316">
-        <v>2363.64</v>
+        <v>2823.81</v>
       </c>
       <c r="C316">
-        <v>10739999744</v>
+        <v>12330000384</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>42825</v>
+        <v>43159</v>
       </c>
       <c r="B317">
-        <v>2362.7199999999998</v>
+        <v>2713.83</v>
       </c>
       <c r="C317">
-        <v>13290000384</v>
+        <v>13360000000</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>42853</v>
+        <v>43189</v>
       </c>
       <c r="B318">
-        <v>2384.1999999999998</v>
+        <v>2640.87</v>
       </c>
       <c r="C318">
-        <v>10090000384</v>
+        <v>14140000256</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>42886</v>
+        <v>43220</v>
       </c>
       <c r="B319">
-        <v>2411.8000000000002</v>
+        <v>2648.05</v>
       </c>
       <c r="C319">
-        <v>11939999744</v>
+        <v>12049999872</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>42916</v>
+        <v>43251</v>
       </c>
       <c r="B320">
-        <v>2423.41</v>
+        <v>2705.27</v>
       </c>
       <c r="C320">
-        <v>14259999744</v>
+        <v>12120000512</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>42947</v>
+        <v>43280</v>
       </c>
       <c r="B321">
-        <v>2470.3000000000002</v>
+        <v>2718.37</v>
       </c>
       <c r="C321">
-        <v>10339999744</v>
+        <v>13740000256</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>42978</v>
+        <v>43312</v>
       </c>
       <c r="B322">
-        <v>2471.65</v>
+        <v>2816.29</v>
       </c>
       <c r="C322">
-        <v>11020000256</v>
+        <v>10739999744</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43007</v>
+        <v>43343</v>
       </c>
       <c r="B323">
-        <v>2519.36</v>
+        <v>2901.52</v>
       </c>
       <c r="C323">
-        <v>11020000256</v>
+        <v>10680000512</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43039</v>
+        <v>43371</v>
       </c>
       <c r="B324">
-        <v>2575.2600000000002</v>
+        <v>2913.98</v>
       </c>
       <c r="C324">
-        <v>11050000384</v>
+        <v>11550000128</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43069</v>
+        <v>43404</v>
       </c>
       <c r="B325">
-        <v>2647.58</v>
+        <v>2711.74</v>
       </c>
       <c r="C325">
-        <v>11299999744</v>
+        <v>15440000000</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43098</v>
+        <v>43434</v>
       </c>
       <c r="B326">
-        <v>2673.61</v>
+        <v>2760.17</v>
       </c>
       <c r="C326">
-        <v>11379999744</v>
+        <v>13690000384</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43131</v>
+        <v>43465</v>
       </c>
       <c r="B327">
-        <v>2823.81</v>
+        <v>2506.85</v>
       </c>
       <c r="C327">
-        <v>12330000384</v>
+        <v>15640000512</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43159</v>
+        <v>43496</v>
       </c>
       <c r="B328">
-        <v>2713.83</v>
+        <v>2704.1</v>
       </c>
       <c r="C328">
-        <v>13360000000</v>
+        <v>13870000128</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43189</v>
+        <v>43524</v>
       </c>
       <c r="B329">
-        <v>2640.87</v>
+        <v>2784.49</v>
       </c>
       <c r="C329">
-        <v>14140000256</v>
+        <v>10919999488</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43220</v>
+        <v>43553</v>
       </c>
       <c r="B330">
-        <v>2648.05</v>
+        <v>2834.4</v>
       </c>
       <c r="C330">
-        <v>12049999872</v>
+        <v>13459999744</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43251</v>
+        <v>43585</v>
       </c>
       <c r="B331">
-        <v>2705.27</v>
+        <v>2945.83</v>
       </c>
       <c r="C331">
-        <v>12120000512</v>
+        <v>10650000384</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43280</v>
+        <v>43616</v>
       </c>
       <c r="B332">
-        <v>2718.37</v>
+        <v>2752.06</v>
       </c>
       <c r="C332">
-        <v>13740000256</v>
+        <v>11930000384</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43312</v>
+        <v>43644</v>
       </c>
       <c r="B333">
-        <v>2816.29</v>
+        <v>2941.76</v>
       </c>
       <c r="C333">
-        <v>10739999744</v>
+        <v>11829999616</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43343</v>
+        <v>43677</v>
       </c>
       <c r="B334">
-        <v>2901.52</v>
+        <v>2980.38</v>
       </c>
       <c r="C334">
-        <v>10680000512</v>
+        <v>10240000000</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43371</v>
+        <v>43707</v>
       </c>
       <c r="B335">
-        <v>2913.98</v>
+        <v>2926.46</v>
       </c>
       <c r="C335">
-        <v>11550000128</v>
+        <v>12129999872</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43404</v>
+        <v>43738</v>
       </c>
       <c r="B336">
-        <v>2711.74</v>
+        <v>2976.74</v>
       </c>
       <c r="C336">
-        <v>15440000000</v>
+        <v>11180000256</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43434</v>
+        <v>43769</v>
       </c>
       <c r="B337">
-        <v>2760.17</v>
+        <v>3037.56</v>
       </c>
       <c r="C337">
-        <v>13690000384</v>
+        <v>11150000128</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43465</v>
+        <v>43798</v>
       </c>
       <c r="B338">
-        <v>2506.85</v>
+        <v>3140.98</v>
       </c>
       <c r="C338">
-        <v>15640000512</v>
+        <v>10330000384</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43496</v>
+        <v>43830</v>
       </c>
       <c r="B339">
-        <v>2704.1</v>
+        <v>3230.78</v>
       </c>
       <c r="C339">
-        <v>13870000128</v>
+        <v>11249999872</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43524</v>
+        <v>43861</v>
       </c>
       <c r="B340">
-        <v>2784.49</v>
+        <v>3225.52</v>
       </c>
       <c r="C340">
-        <v>10919999488</v>
+        <v>11800000512</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43553</v>
+        <v>43889</v>
       </c>
       <c r="B341">
-        <v>2834.4</v>
+        <v>2954.22</v>
       </c>
       <c r="C341">
-        <v>13459999744</v>
+        <v>12899999744</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43585</v>
+        <v>43921</v>
       </c>
       <c r="B342">
-        <v>2945.83</v>
+        <v>2584.59</v>
       </c>
       <c r="C342">
-        <v>10650000384</v>
+        <v>26030000128</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43616</v>
+        <v>43951</v>
       </c>
       <c r="B343">
-        <v>2752.06</v>
+        <v>2912.43</v>
       </c>
       <c r="C343">
-        <v>11930000384</v>
+        <v>17100000256</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43644</v>
+        <v>43980</v>
       </c>
       <c r="B344">
-        <v>2941.76</v>
+        <v>3044.31</v>
       </c>
       <c r="C344">
-        <v>11829999616</v>
+        <v>14190000128</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>43677</v>
+        <v>44012</v>
       </c>
       <c r="B345">
-        <v>2980.38</v>
+        <v>3100.29</v>
       </c>
       <c r="C345">
-        <v>10240000000</v>
+        <v>18649999360</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>43707</v>
+        <v>44043</v>
       </c>
       <c r="B346">
-        <v>2926.46</v>
+        <v>3271.12</v>
       </c>
       <c r="C346">
-        <v>12129999872</v>
+        <v>13240000512</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>43738</v>
+        <v>44074</v>
       </c>
       <c r="B347">
-        <v>2976.74</v>
+        <v>3500.31</v>
       </c>
       <c r="C347">
-        <v>11180000256</v>
+        <v>11269999616</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>43769</v>
+        <v>44104</v>
       </c>
       <c r="B348">
-        <v>3037.56</v>
+        <v>3363</v>
       </c>
       <c r="C348">
-        <v>11150000128</v>
+        <v>15440000000</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>43798</v>
+        <v>44134</v>
       </c>
       <c r="B349">
-        <v>3140.98</v>
+        <v>3269.96</v>
       </c>
       <c r="C349">
-        <v>10330000384</v>
+        <v>12760000512</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>43830</v>
+        <v>44165</v>
       </c>
       <c r="B350">
-        <v>3230.78</v>
+        <v>3621.63</v>
       </c>
       <c r="C350">
-        <v>11249999872</v>
+        <v>13589999616</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>43861</v>
+        <v>44196</v>
       </c>
       <c r="B351">
-        <v>3225.52</v>
+        <v>3756.07</v>
       </c>
       <c r="C351">
-        <v>11800000512</v>
+        <v>13969999872</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>43889</v>
+        <v>44225</v>
       </c>
       <c r="B352">
-        <v>2954.22</v>
+        <v>3714.24</v>
       </c>
       <c r="C352">
-        <v>12899999744</v>
+        <v>13630000128</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>43921</v>
+        <v>44253</v>
       </c>
       <c r="B353">
-        <v>2584.59</v>
+        <v>3811.15</v>
       </c>
       <c r="C353">
-        <v>26030000128</v>
+        <v>11850000384</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>43951</v>
+        <v>44286</v>
       </c>
       <c r="B354">
-        <v>2912.43</v>
+        <v>3972.89</v>
       </c>
       <c r="C354">
-        <v>17100000256</v>
+        <v>17159999488</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>43980</v>
+        <v>44316</v>
       </c>
       <c r="B355">
-        <v>3044.31</v>
+        <v>4181.17</v>
       </c>
       <c r="C355">
-        <v>14190000128</v>
+        <v>11790000128</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>44012</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>3100.29</v>
+        <v>4204.1099999999997</v>
       </c>
       <c r="C356">
-        <v>18649999360</v>
+        <v>12419999744</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>44043</v>
+        <v>44377</v>
       </c>
       <c r="B357">
-        <v>3271.12</v>
+        <v>4297.5</v>
       </c>
       <c r="C357">
-        <v>13240000512</v>
+        <v>13230000128</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>44074</v>
+        <v>44407</v>
       </c>
       <c r="B358">
-        <v>3500.31</v>
+        <v>4395.26</v>
       </c>
       <c r="C358">
-        <v>11269999616</v>
+        <v>11299999744</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>44104</v>
+        <v>44439</v>
       </c>
       <c r="B359">
-        <v>3363</v>
+        <v>4522.68</v>
       </c>
       <c r="C359">
-        <v>15440000000</v>
+        <v>10650000384</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>44134</v>
+        <v>44469</v>
       </c>
       <c r="B360">
-        <v>3269.96</v>
+        <v>4307.54</v>
       </c>
       <c r="C360">
-        <v>12760000512</v>
+        <v>12430000128</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>44165</v>
+        <v>44498</v>
       </c>
       <c r="B361">
-        <v>3621.63</v>
+        <v>4605.38</v>
       </c>
       <c r="C361">
-        <v>13589999616</v>
+        <v>11180000256</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="B362">
-        <v>3756.07</v>
+        <v>4567</v>
       </c>
       <c r="C362">
-        <v>13969999872</v>
+        <v>12519999488</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>44225</v>
+        <v>44561</v>
       </c>
       <c r="B363">
-        <v>3714.24</v>
+        <v>4766.18</v>
       </c>
       <c r="C363">
-        <v>13630000128</v>
+        <v>14279999488</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>44253</v>
+        <v>44592</v>
       </c>
       <c r="B364">
-        <v>3811.15</v>
+        <v>4515.55</v>
       </c>
       <c r="C364">
-        <v>11850000384</v>
+        <v>14499999744</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>44286</v>
+        <v>44620</v>
       </c>
       <c r="B365">
-        <v>3972.89</v>
+        <v>4373.9399999999996</v>
       </c>
       <c r="C365">
-        <v>17159999488</v>
+        <v>13459999744</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>44316</v>
+        <v>44651</v>
       </c>
       <c r="B366">
-        <v>4181.17</v>
+        <v>4530.41</v>
       </c>
       <c r="C366">
-        <v>11790000128</v>
+        <v>17429999616</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>44347</v>
+        <v>44680</v>
       </c>
       <c r="B367">
-        <v>4204.1099999999997</v>
+        <v>4131.93</v>
       </c>
       <c r="C367">
-        <v>12419999744</v>
+        <v>12990000128</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>44377</v>
+        <v>44712</v>
       </c>
       <c r="B368">
-        <v>4297.5</v>
+        <v>4132.1499999999996</v>
       </c>
       <c r="C368">
-        <v>13230000128</v>
+        <v>15589999616</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>44407</v>
+        <v>44742</v>
       </c>
       <c r="B369">
-        <v>4395.26</v>
+        <v>3785.38</v>
       </c>
       <c r="C369">
-        <v>11299999744</v>
+        <v>15870000128</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>44439</v>
+        <v>44771</v>
       </c>
       <c r="B370">
-        <v>4522.68</v>
+        <v>4130.29</v>
       </c>
       <c r="C370">
-        <v>10650000384</v>
+        <v>12440000512</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>44469</v>
+        <v>44804</v>
       </c>
       <c r="B371">
-        <v>4307.54</v>
+        <v>3955</v>
       </c>
       <c r="C371">
-        <v>12430000128</v>
+        <v>12720000000</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>44498</v>
+        <v>44834</v>
       </c>
       <c r="B372">
-        <v>4605.38</v>
+        <v>3585.62</v>
       </c>
       <c r="C372">
-        <v>11180000256</v>
+        <v>15539999744</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>44530</v>
+        <v>44865</v>
       </c>
       <c r="B373">
-        <v>4567</v>
+        <v>3871.98</v>
       </c>
       <c r="C373">
-        <v>12519999488</v>
+        <v>15280000000</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>44561</v>
+        <v>44895</v>
       </c>
       <c r="B374">
-        <v>4766.18</v>
+        <v>4080.11</v>
       </c>
       <c r="C374">
-        <v>14279999488</v>
+        <v>14129999872</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>44592</v>
+        <v>44925</v>
       </c>
       <c r="B375">
-        <v>4515.55</v>
+        <v>3839.5</v>
       </c>
       <c r="C375">
         <v>14499999744</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B376">
-        <v>4373.9399999999996</v>
-      </c>
-      <c r="C376">
-        <v>13459999744</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B377">
-        <v>4530.41</v>
-      </c>
-      <c r="C377">
-        <v>17429999616</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1">
-        <v>44680</v>
-      </c>
-      <c r="B378">
-        <v>4131.93</v>
-      </c>
-      <c r="C378">
-        <v>12990000128</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B379">
-        <v>4132.1499999999996</v>
-      </c>
-      <c r="C379">
-        <v>15589999616</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B380">
-        <v>3785.38</v>
-      </c>
-      <c r="C380">
-        <v>15870000128</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1">
-        <v>44771</v>
-      </c>
-      <c r="B381">
-        <v>4130.29</v>
-      </c>
-      <c r="C381">
-        <v>12440000512</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B382">
-        <v>3955</v>
-      </c>
-      <c r="C382">
-        <v>12720000000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B383">
-        <v>3585.62</v>
-      </c>
-      <c r="C383">
-        <v>15539999744</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B384">
-        <v>3871.98</v>
-      </c>
-      <c r="C384">
-        <v>15280000000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B385">
-        <v>4080.11</v>
-      </c>
-      <c r="C385">
-        <v>14129999872</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B386">
-        <v>3839.5</v>
-      </c>
-      <c r="C386">
-        <v>14499999744</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C388">
-    <sortCondition ref="A1:A388"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C377">
+    <sortCondition ref="A1:A377"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
